--- a/data/MasterGlutamateSpreadsheet.xlsx
+++ b/data/MasterGlutamateSpreadsheet.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10788" windowHeight="8262" activeTab="2" xr2:uid="{76EBCDB3-6D80-4011-A7B4-774B8706190D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10788" windowHeight="8262" xr2:uid="{76EBCDB3-6D80-4011-A7B4-774B8706190D}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeControl" sheetId="1" r:id="rId1"/>
-    <sheet name="1mMGlu" sheetId="2" r:id="rId2"/>
-    <sheet name="3mMGlu" sheetId="3" r:id="rId3"/>
+    <sheet name="Glu1mM" sheetId="2" r:id="rId2"/>
+    <sheet name="Glu3mM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -34,51 +34,6 @@
     <t>Age</t>
   </si>
   <si>
-    <t>m1r1</t>
-  </si>
-  <si>
-    <t>m1r2</t>
-  </si>
-  <si>
-    <t>m1r3</t>
-  </si>
-  <si>
-    <t>m1r4</t>
-  </si>
-  <si>
-    <t>m1r5</t>
-  </si>
-  <si>
-    <t>m1r6</t>
-  </si>
-  <si>
-    <t>m2r1</t>
-  </si>
-  <si>
-    <t>m2r2</t>
-  </si>
-  <si>
-    <t>m2r3</t>
-  </si>
-  <si>
-    <t>m2r4</t>
-  </si>
-  <si>
-    <t>m2r5</t>
-  </si>
-  <si>
-    <t>m2r6</t>
-  </si>
-  <si>
-    <t>m3r1</t>
-  </si>
-  <si>
-    <t>m3r2</t>
-  </si>
-  <si>
-    <t>m3r3</t>
-  </si>
-  <si>
     <t>Dose</t>
   </si>
   <si>
@@ -86,15 +41,6 @@
   </si>
   <si>
     <t>FST</t>
-  </si>
-  <si>
-    <t>m3r4</t>
-  </si>
-  <si>
-    <t>m3r5</t>
-  </si>
-  <si>
-    <t>m3r6</t>
   </si>
   <si>
     <t>DOB</t>
@@ -127,13 +73,67 @@
     <t>NA</t>
   </si>
   <si>
-    <t>TimePosition</t>
-  </si>
-  <si>
     <t>G20</t>
   </si>
   <si>
     <t>3mM_glu</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>T3.5</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T10.5</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>T17.5</t>
+  </si>
+  <si>
+    <t>T21</t>
+  </si>
+  <si>
+    <t>T24.5</t>
+  </si>
+  <si>
+    <t>T28</t>
+  </si>
+  <si>
+    <t>T31.5</t>
+  </si>
+  <si>
+    <t>T35</t>
+  </si>
+  <si>
+    <t>T38.5</t>
+  </si>
+  <si>
+    <t>T42</t>
+  </si>
+  <si>
+    <t>T45.5</t>
+  </si>
+  <si>
+    <t>T49</t>
+  </si>
+  <si>
+    <t>T52.5</t>
+  </si>
+  <si>
+    <t>T56</t>
+  </si>
+  <si>
+    <t>T59.5</t>
   </si>
 </sst>
 </file>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCD8EB7-4592-4D74-BEC1-FD73B58EE5E9}">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -507,88 +507,88 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="S1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="T1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="U1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="V1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>20</v>
-      </c>
       <c r="AA1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AB1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -603,10 +603,10 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K2">
         <v>33.101272340000001</v>
@@ -675,10 +675,10 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K3">
         <v>12.76035802</v>
@@ -747,10 +747,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K4">
         <v>46.098958969999998</v>
@@ -819,10 +819,10 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K5">
         <v>24.355979999999999</v>
@@ -891,10 +891,10 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K6">
         <v>32.165161609999998</v>
@@ -963,10 +963,10 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K7">
         <v>22.905249999999999</v>
@@ -1035,10 +1035,10 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K8">
         <v>26.288089020000001</v>
@@ -1107,10 +1107,10 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K9">
         <v>17.943367246000001</v>
@@ -1179,10 +1179,10 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K10">
         <v>21.224036833700001</v>
@@ -1251,10 +1251,10 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K11">
         <v>34.632897027699997</v>
@@ -1323,10 +1323,10 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K12">
         <v>45.996479035555552</v>
@@ -1395,10 +1395,10 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K13">
         <v>16.430493673333334</v>
@@ -1467,10 +1467,10 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K14">
         <v>60.988059410000005</v>
@@ -1539,10 +1539,10 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K15">
         <v>37.457593917499999</v>
@@ -1611,10 +1611,10 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K16">
         <v>39.087522507499997</v>
@@ -1683,10 +1683,10 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K17">
         <v>32.521394093333335</v>
@@ -1755,10 +1755,10 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K18">
         <v>32.928235190000002</v>
@@ -1827,10 +1827,10 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K19">
         <v>21.9571186963</v>
@@ -1899,10 +1899,10 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K20">
         <v>26.7380866749</v>
@@ -1971,10 +1971,10 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K21">
         <v>49.345949804299998</v>
@@ -2043,10 +2043,10 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K22">
         <v>69.930069000000003</v>
@@ -2115,10 +2115,10 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K23">
         <v>30.959752999999999</v>
@@ -2187,10 +2187,10 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K24">
         <v>128.20512400000001</v>
@@ -2259,10 +2259,10 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K25">
         <v>57.306590999999997</v>
@@ -2331,10 +2331,10 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K26">
         <v>51.150894200000003</v>
@@ -2403,10 +2403,10 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K27">
         <v>55.248619099999999</v>
@@ -2475,10 +2475,10 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K28">
         <v>41.152263640000001</v>
@@ -2547,10 +2547,10 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K29">
         <v>37.105751040000001</v>
@@ -2619,10 +2619,10 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K30">
         <v>41.32231522</v>
@@ -2691,10 +2691,10 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K31">
         <v>86.580085749999995</v>
@@ -2761,7 +2761,7 @@
   <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2773,88 +2773,88 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="S1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="T1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="U1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="V1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>20</v>
-      </c>
       <c r="AA1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AB1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -2883,10 +2883,10 @@
         <v>10.11</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K2">
         <v>20.194640920000001</v>
@@ -2969,10 +2969,10 @@
         <v>10.77</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K3">
         <v>20.767104861899998</v>
@@ -3055,10 +3055,10 @@
         <v>8.25</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K4">
         <v>16.764412435200001</v>
@@ -3141,10 +3141,10 @@
         <v>9.67</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K5">
         <v>15.443088515399999</v>
@@ -3221,16 +3221,16 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>10.82</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K6">
         <v>18.3376402723</v>
@@ -3313,10 +3313,10 @@
         <v>8.9</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K7">
         <v>19.528554998400001</v>
@@ -3399,10 +3399,10 @@
         <v>10.82</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K8">
         <v>37.219089510000003</v>
@@ -3485,10 +3485,10 @@
         <v>11.29</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K9">
         <v>34.512036039999998</v>
@@ -3571,10 +3571,10 @@
         <v>12.44</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K10">
         <v>19.474042130000001</v>
@@ -3657,10 +3657,10 @@
         <v>9.23</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K11">
         <v>14.39202908</v>
@@ -3743,10 +3743,10 @@
         <v>10.15</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K12">
         <v>10.275180000000001</v>
@@ -3829,10 +3829,10 @@
         <v>9.36</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K13">
         <v>15.72902</v>
@@ -3915,10 +3915,10 @@
         <v>10.11</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K14">
         <v>25.2481076364</v>
@@ -4001,10 +4001,10 @@
         <v>10.77</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K15">
         <v>26.448002265100001</v>
@@ -4087,10 +4087,10 @@
         <v>8.25</v>
       </c>
       <c r="I16" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K16">
         <v>21.3768952834</v>
@@ -4173,10 +4173,10 @@
         <v>9.67</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K17">
         <v>19.046253095000001</v>
@@ -4253,16 +4253,16 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H18">
         <v>10.82</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K18">
         <v>23.6756831838</v>
@@ -4345,10 +4345,10 @@
         <v>8.9</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K19">
         <v>24.1489071411</v>
@@ -4431,10 +4431,10 @@
         <v>10.82</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K20">
         <v>45.115060005899998</v>
@@ -4517,10 +4517,10 @@
         <v>11.29</v>
       </c>
       <c r="I21" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K21">
         <v>48.552202651899997</v>
@@ -4603,10 +4603,10 @@
         <v>12.44</v>
       </c>
       <c r="I22" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K22">
         <v>28.832424756599998</v>
@@ -4689,10 +4689,10 @@
         <v>9.23</v>
       </c>
       <c r="I23" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K23">
         <v>17.224973680000002</v>
@@ -4775,10 +4775,10 @@
         <v>10.15</v>
       </c>
       <c r="I24" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K24">
         <v>14.673634417000001</v>
@@ -4861,10 +4861,10 @@
         <v>9.36</v>
       </c>
       <c r="I25" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K25">
         <v>17.716139580899998</v>
@@ -4947,10 +4947,10 @@
         <v>10.11</v>
       </c>
       <c r="I26" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K26">
         <v>39.603961939999998</v>
@@ -5033,10 +5033,10 @@
         <v>10.77</v>
       </c>
       <c r="I27" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K27">
         <v>42.105262760000002</v>
@@ -5119,10 +5119,10 @@
         <v>8.25</v>
       </c>
       <c r="I28" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K28">
         <v>30.349014279999999</v>
@@ -5205,10 +5205,10 @@
         <v>9.67</v>
       </c>
       <c r="I29" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J29" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K29">
         <v>30.86419678</v>
@@ -5285,16 +5285,16 @@
         <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H30">
         <v>10.82</v>
       </c>
       <c r="I30" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K30">
         <v>45.558086400000001</v>
@@ -5377,10 +5377,10 @@
         <v>8.9</v>
       </c>
       <c r="I31" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K31">
         <v>38.610038760000002</v>
@@ -5463,10 +5463,10 @@
         <v>10.82</v>
       </c>
       <c r="I32" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K32">
         <v>73.529411319999994</v>
@@ -5549,10 +5549,10 @@
         <v>11.29</v>
       </c>
       <c r="I33" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K33">
         <v>103.62694550000001</v>
@@ -5635,10 +5635,10 @@
         <v>12.44</v>
       </c>
       <c r="I34" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K34">
         <v>56.818180079999998</v>
@@ -5721,10 +5721,10 @@
         <v>9.23</v>
       </c>
       <c r="I35" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K35">
         <v>39.920158389999997</v>
@@ -5807,10 +5807,10 @@
         <v>10.15</v>
       </c>
       <c r="I36" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K36">
         <v>26.212320330000001</v>
@@ -5893,10 +5893,10 @@
         <v>9.36</v>
       </c>
       <c r="I37" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K37">
         <v>24.906600950000001</v>
@@ -5962,8 +5962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42570B60-2586-41A4-BAE2-D8EDFEF640F8}">
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5974,93 +5974,93 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="S1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="T1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="U1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="V1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>20</v>
-      </c>
       <c r="AA1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AB1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1">
         <v>42811</v>
@@ -6084,10 +6084,10 @@
         <v>10.83</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K2">
         <v>55.732315161499997</v>
@@ -6146,7 +6146,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>42811</v>
@@ -6170,10 +6170,10 @@
         <v>9.58</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K3">
         <v>16.304966901699999</v>
@@ -6232,7 +6232,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>42811</v>
@@ -6256,10 +6256,10 @@
         <v>10.83</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K4">
         <v>90.497734070000007</v>
@@ -6318,7 +6318,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>42811</v>
@@ -6342,10 +6342,10 @@
         <v>9.58</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K5">
         <v>24.660911559999999</v>
@@ -6404,7 +6404,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>42811</v>
@@ -6428,10 +6428,10 @@
         <v>10.83</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K6">
         <v>76.001131439999995</v>
@@ -6490,7 +6490,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>42811</v>
@@ -6514,10 +6514,10 @@
         <v>9.58</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K7">
         <v>20.97670428</v>

--- a/data/MasterGlutamateSpreadsheet.xlsx
+++ b/data/MasterGlutamateSpreadsheet.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10788" windowHeight="8262" xr2:uid="{76EBCDB3-6D80-4011-A7B4-774B8706190D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10788" windowHeight="8262" activeTab="5" xr2:uid="{76EBCDB3-6D80-4011-A7B4-774B8706190D}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeControl" sheetId="1" r:id="rId1"/>
     <sheet name="Glu1mM" sheetId="2" r:id="rId2"/>
     <sheet name="Glu3mM" sheetId="3" r:id="rId3"/>
+    <sheet name="XA1mM" sheetId="4" r:id="rId4"/>
+    <sheet name="XA3mM" sheetId="5" r:id="rId5"/>
+    <sheet name="XA10mM" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,8 +28,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>KimberlyThan</author>
+  </authors>
+  <commentList>
+    <comment ref="Z18" authorId="0" shapeId="0" xr:uid="{4A32A621-D848-4616-81F7-A5F09FEF436F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KimberlyThan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Double firing so excluded</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="38">
   <si>
     <t>DoE</t>
   </si>
@@ -68,12 +105,6 @@
   </si>
   <si>
     <t>1mM_glu</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>G20</t>
   </si>
   <si>
     <t>3mM_glu</t>
@@ -135,12 +166,24 @@
   <si>
     <t>T59.5</t>
   </si>
+  <si>
+    <t>1mM_XA</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>3mM_XA</t>
+  </si>
+  <si>
+    <t>10mM_XA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,16 +191,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -165,13 +234,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCD8EB7-4592-4D74-BEC1-FD73B58EE5E9}">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -534,61 +623,61 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>27</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>33</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -2760,8 +2849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CD8991-5B3C-4DB1-A96B-64F8EA5C93EA}">
   <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2800,66 +2889,66 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>27</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>33</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>42548</v>
@@ -2945,7 +3034,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>42629</v>
@@ -3031,7 +3120,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>42648</v>
@@ -3117,7 +3206,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>42664</v>
@@ -3203,7 +3292,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>42664</v>
@@ -3220,9 +3309,6 @@
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
       <c r="H6">
         <v>10.82</v>
       </c>
@@ -3289,7 +3375,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>42671</v>
@@ -3375,7 +3461,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>42690</v>
@@ -3461,7 +3547,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
         <v>42690</v>
@@ -3547,7 +3633,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>42692</v>
@@ -3633,7 +3719,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>42704</v>
@@ -3719,7 +3805,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
         <v>42748</v>
@@ -3805,7 +3891,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1">
         <v>42748</v>
@@ -3891,7 +3977,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
         <v>42548</v>
@@ -3977,7 +4063,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
         <v>42629</v>
@@ -4063,7 +4149,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
         <v>42648</v>
@@ -4149,7 +4235,7 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1">
         <v>42664</v>
@@ -4235,7 +4321,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1">
         <v>42664</v>
@@ -4252,9 +4338,6 @@
       <c r="F18">
         <v>2</v>
       </c>
-      <c r="G18" t="s">
-        <v>14</v>
-      </c>
       <c r="H18">
         <v>10.82</v>
       </c>
@@ -4321,7 +4404,7 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1">
         <v>42671</v>
@@ -4407,7 +4490,7 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1">
         <v>42690</v>
@@ -4493,7 +4576,7 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1">
         <v>42690</v>
@@ -4579,7 +4662,7 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1">
         <v>42692</v>
@@ -4665,7 +4748,7 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1">
         <v>42704</v>
@@ -4751,7 +4834,7 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1">
         <v>42748</v>
@@ -4837,7 +4920,7 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1">
         <v>42748</v>
@@ -4923,12 +5006,12 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1">
         <v>42548</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>42458</v>
       </c>
       <c r="D26">
@@ -5009,12 +5092,12 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1">
         <v>42629</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>42533</v>
       </c>
       <c r="D27">
@@ -5095,12 +5178,12 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>3</v>
-      </c>
-      <c r="B28">
+        <v>13</v>
+      </c>
+      <c r="B28" s="1">
         <v>42648</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>42587</v>
       </c>
       <c r="D28">
@@ -5181,12 +5264,12 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1">
         <v>42664</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>42587</v>
       </c>
       <c r="D29">
@@ -5267,12 +5350,12 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>5</v>
-      </c>
-      <c r="B30">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1">
         <v>42664</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>42587</v>
       </c>
       <c r="D30">
@@ -5284,9 +5367,6 @@
       <c r="F30">
         <v>2</v>
       </c>
-      <c r="G30" t="s">
-        <v>14</v>
-      </c>
       <c r="H30">
         <v>10.82</v>
       </c>
@@ -5353,12 +5433,12 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>6</v>
-      </c>
-      <c r="B31">
+        <v>16</v>
+      </c>
+      <c r="B31" s="1">
         <v>42671</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>42587</v>
       </c>
       <c r="D31">
@@ -5439,12 +5519,12 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>7</v>
-      </c>
-      <c r="B32">
+        <v>17</v>
+      </c>
+      <c r="B32" s="1">
         <v>42690</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>42619</v>
       </c>
       <c r="D32">
@@ -5525,12 +5605,12 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>8</v>
-      </c>
-      <c r="B33">
+        <v>18</v>
+      </c>
+      <c r="B33" s="1">
         <v>42690</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>42619</v>
       </c>
       <c r="D33">
@@ -5611,12 +5691,12 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>9</v>
-      </c>
-      <c r="B34">
+        <v>19</v>
+      </c>
+      <c r="B34" s="1">
         <v>42692</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>42619</v>
       </c>
       <c r="D34">
@@ -5697,12 +5777,12 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>10</v>
-      </c>
-      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="B35" s="1">
         <v>42704</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>42619</v>
       </c>
       <c r="D35">
@@ -5783,12 +5863,12 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>11</v>
-      </c>
-      <c r="B36">
+        <v>21</v>
+      </c>
+      <c r="B36" s="1">
         <v>42748</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>42682</v>
       </c>
       <c r="D36">
@@ -5869,12 +5949,12 @@
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>12</v>
-      </c>
-      <c r="B37">
+        <v>22</v>
+      </c>
+      <c r="B37" s="1">
         <v>42748</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>42682</v>
       </c>
       <c r="D37">
@@ -5963,7 +6043,7 @@
   <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6001,66 +6081,66 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>27</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>15</v>
+      <c r="A2">
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>42811</v>
@@ -6084,7 +6164,7 @@
         <v>10.83</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
         <v>4</v>
@@ -6145,8 +6225,8 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>15</v>
+      <c r="A3">
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <v>42811</v>
@@ -6170,7 +6250,7 @@
         <v>9.58</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
         <v>4</v>
@@ -6231,8 +6311,8 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>15</v>
+      <c r="A4">
+        <v>23</v>
       </c>
       <c r="B4" s="1">
         <v>42811</v>
@@ -6256,7 +6336,7 @@
         <v>10.83</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -6317,8 +6397,8 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>15</v>
+      <c r="A5">
+        <v>24</v>
       </c>
       <c r="B5" s="1">
         <v>42811</v>
@@ -6342,7 +6422,7 @@
         <v>9.58</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -6403,8 +6483,8 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>15</v>
+      <c r="A6">
+        <v>23</v>
       </c>
       <c r="B6" s="1">
         <v>42811</v>
@@ -6428,7 +6508,7 @@
         <v>10.83</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -6489,8 +6569,8 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>15</v>
+      <c r="A7">
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>42811</v>
@@ -6514,7 +6594,7 @@
         <v>9.58</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -6572,6 +6652,8517 @@
       </c>
       <c r="AB7">
         <v>24.416904450000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D9B015-AF4B-46AE-8432-7CBD48B88378}">
+  <dimension ref="A1:AB28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="8.83984375" style="3"/>
+    <col min="2" max="3" width="9.15625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.83984375" style="3"/>
+    <col min="6" max="6" width="10.15625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83984375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4">
+        <v>42892</v>
+      </c>
+      <c r="C2" s="4">
+        <v>42790</v>
+      </c>
+      <c r="D2" s="3">
+        <v>102</v>
+      </c>
+      <c r="E2" s="3">
+        <v>27.2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1.008E-2</v>
+      </c>
+      <c r="H2" s="3">
+        <v>10.06</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="3">
+        <v>12.2467048891</v>
+      </c>
+      <c r="L2" s="3">
+        <v>12.1223906056</v>
+      </c>
+      <c r="M2" s="3">
+        <v>12.2369826114</v>
+      </c>
+      <c r="N2" s="3">
+        <v>12.358742725300001</v>
+      </c>
+      <c r="O2" s="3">
+        <v>12.096571884199999</v>
+      </c>
+      <c r="P2" s="3">
+        <v>12.6574038789</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>12.919165038699999</v>
+      </c>
+      <c r="R2" s="3">
+        <v>12.1125002663</v>
+      </c>
+      <c r="S2" s="3">
+        <v>11.7010433656</v>
+      </c>
+      <c r="T2" s="3">
+        <v>12.1913371656</v>
+      </c>
+      <c r="U2" s="3">
+        <v>12.4539196596</v>
+      </c>
+      <c r="V2" s="3">
+        <v>12.4430618727</v>
+      </c>
+      <c r="W2" s="3">
+        <v>12.089635055600001</v>
+      </c>
+      <c r="X2" s="3">
+        <v>10.965147937499999</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>12.271629755599999</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>12.0387675166</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>11.895278394</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>11.797447975000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>42895</v>
+      </c>
+      <c r="C3" s="4">
+        <v>42790</v>
+      </c>
+      <c r="D3" s="3">
+        <v>105</v>
+      </c>
+      <c r="E3" s="3">
+        <v>28.3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.286E-2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>10.74</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="3">
+        <v>28.0253583987</v>
+      </c>
+      <c r="L3" s="3">
+        <v>27.502307993199999</v>
+      </c>
+      <c r="M3" s="3">
+        <v>27.1231180238</v>
+      </c>
+      <c r="N3" s="3">
+        <v>27.192697729900001</v>
+      </c>
+      <c r="O3" s="3">
+        <v>27.589392165700001</v>
+      </c>
+      <c r="P3" s="3">
+        <v>27.353197818200002</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>27.7982356923</v>
+      </c>
+      <c r="R3" s="3">
+        <v>26.469806303599999</v>
+      </c>
+      <c r="S3" s="3">
+        <v>26.425092953899998</v>
+      </c>
+      <c r="T3" s="3">
+        <v>25.6813160799</v>
+      </c>
+      <c r="U3" s="3">
+        <v>25.7759884478</v>
+      </c>
+      <c r="V3" s="3">
+        <v>26.4016419479</v>
+      </c>
+      <c r="W3" s="3">
+        <v>26.701085254399999</v>
+      </c>
+      <c r="X3" s="3">
+        <v>27.1517998743</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>27.230748835899998</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>27.296425612299998</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>27.3530921953</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>26.840358910199999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4">
+        <v>42895</v>
+      </c>
+      <c r="C4" s="4">
+        <v>42790</v>
+      </c>
+      <c r="D4" s="3">
+        <v>105</v>
+      </c>
+      <c r="E4" s="3">
+        <v>28.3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.0330000000000001E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>11.68</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="3">
+        <v>28.112892948300001</v>
+      </c>
+      <c r="L4" s="3">
+        <v>27.4295664807</v>
+      </c>
+      <c r="M4" s="3">
+        <v>27.369480373399998</v>
+      </c>
+      <c r="N4" s="3">
+        <v>27.470961945999999</v>
+      </c>
+      <c r="O4" s="3">
+        <v>27.8515468959</v>
+      </c>
+      <c r="P4" s="3">
+        <v>28.4825218726</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>31.9695656116</v>
+      </c>
+      <c r="R4" s="3">
+        <v>31.3755526357</v>
+      </c>
+      <c r="S4" s="3">
+        <v>32.672272831199997</v>
+      </c>
+      <c r="T4" s="3">
+        <v>34.480232169600001</v>
+      </c>
+      <c r="U4" s="3">
+        <v>34.747499191300001</v>
+      </c>
+      <c r="V4" s="3">
+        <v>35.056266421799997</v>
+      </c>
+      <c r="W4" s="3">
+        <v>34.478101088700001</v>
+      </c>
+      <c r="X4" s="3">
+        <v>33.874119779700003</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>34.403490652999999</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>34.952794039300002</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>35.003646502400002</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>35.174011215599997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4">
+        <v>42899</v>
+      </c>
+      <c r="C5" s="4">
+        <v>42837</v>
+      </c>
+      <c r="D5" s="3">
+        <v>62</v>
+      </c>
+      <c r="E5" s="3">
+        <v>25.4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>9.4599999999999997E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>10.32</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3">
+        <v>20.0368260089</v>
+      </c>
+      <c r="L5" s="3">
+        <v>19.867057866100001</v>
+      </c>
+      <c r="M5" s="3">
+        <v>27.093237306199999</v>
+      </c>
+      <c r="N5" s="3">
+        <v>19.8317033533</v>
+      </c>
+      <c r="O5" s="3">
+        <v>20.034427360500001</v>
+      </c>
+      <c r="P5" s="3">
+        <v>19.669594109199998</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>20.245823407</v>
+      </c>
+      <c r="R5" s="3">
+        <v>20.0866459197</v>
+      </c>
+      <c r="S5" s="3">
+        <v>20.4119009727</v>
+      </c>
+      <c r="T5" s="3">
+        <v>19.989566675700001</v>
+      </c>
+      <c r="U5" s="3">
+        <v>19.708264825400001</v>
+      </c>
+      <c r="V5" s="3">
+        <v>19.547132140599999</v>
+      </c>
+      <c r="W5" s="3">
+        <v>14.1493936848</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4">
+        <v>42901</v>
+      </c>
+      <c r="C6" s="4">
+        <v>42837</v>
+      </c>
+      <c r="D6" s="3">
+        <v>64</v>
+      </c>
+      <c r="E6" s="3">
+        <v>25.2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.106E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>12.01</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="3">
+        <v>19.777420598799999</v>
+      </c>
+      <c r="L6" s="3">
+        <v>16.8135635927</v>
+      </c>
+      <c r="M6" s="3">
+        <v>16.683234641199999</v>
+      </c>
+      <c r="N6" s="3">
+        <v>16.098779409399999</v>
+      </c>
+      <c r="O6" s="3">
+        <v>16.293852374699998</v>
+      </c>
+      <c r="P6" s="3">
+        <v>17.167913167599998</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>20.9460640619</v>
+      </c>
+      <c r="R6" s="3">
+        <v>18.494147064900002</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4">
+        <v>42902</v>
+      </c>
+      <c r="C7" s="4">
+        <v>42837</v>
+      </c>
+      <c r="D7" s="3">
+        <v>65</v>
+      </c>
+      <c r="E7" s="3">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>9.8600000000000007E-3</v>
+      </c>
+      <c r="H7" s="3">
+        <v>11.48</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="3">
+        <v>14.1441480246</v>
+      </c>
+      <c r="L7" s="3">
+        <v>14.0775755264</v>
+      </c>
+      <c r="M7" s="3">
+        <v>14.8199963313</v>
+      </c>
+      <c r="N7" s="3">
+        <v>14.778244040800001</v>
+      </c>
+      <c r="O7" s="3">
+        <v>15.367177158400001</v>
+      </c>
+      <c r="P7" s="3">
+        <v>15.312612377800001</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>15.0766906508</v>
+      </c>
+      <c r="R7" s="3">
+        <v>14.904890828899999</v>
+      </c>
+      <c r="S7" s="3">
+        <v>15.0976467983</v>
+      </c>
+      <c r="T7" s="3">
+        <v>15.5636247678</v>
+      </c>
+      <c r="U7" s="3">
+        <v>15.149195302800001</v>
+      </c>
+      <c r="V7" s="3">
+        <v>15.0879504996</v>
+      </c>
+      <c r="W7" s="3">
+        <v>15.512053570000001</v>
+      </c>
+      <c r="X7" s="3">
+        <v>15.2552042452</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>15.1101278587</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>16.4074237094</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>16.417522378499999</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>16.6912491428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4">
+        <v>42902</v>
+      </c>
+      <c r="C8" s="4">
+        <v>42837</v>
+      </c>
+      <c r="D8" s="3">
+        <v>65</v>
+      </c>
+      <c r="E8" s="3">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1.154E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>10.45</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
+        <v>12.8684420479</v>
+      </c>
+      <c r="L8" s="3">
+        <v>12.5052778449</v>
+      </c>
+      <c r="M8" s="3">
+        <v>11.830928650900001</v>
+      </c>
+      <c r="N8" s="3">
+        <v>11.2789942087</v>
+      </c>
+      <c r="O8" s="3">
+        <v>11.3320225352</v>
+      </c>
+      <c r="P8" s="3">
+        <v>11.1135519586</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>11.246308511900001</v>
+      </c>
+      <c r="R8" s="3">
+        <v>11.309390157299999</v>
+      </c>
+      <c r="S8" s="3">
+        <v>10.972837030499999</v>
+      </c>
+      <c r="T8" s="3">
+        <v>10.7494996467</v>
+      </c>
+      <c r="U8" s="3">
+        <v>10.353098903999999</v>
+      </c>
+      <c r="V8" s="3">
+        <v>10.7391758463</v>
+      </c>
+      <c r="W8" s="3">
+        <v>10.5954213173</v>
+      </c>
+      <c r="X8" s="3">
+        <v>10.337939693999999</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>10.454368257300001</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>10.637616915700001</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>10.5735553327</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>10.6301882792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4">
+        <v>42905</v>
+      </c>
+      <c r="C9" s="4">
+        <v>42837</v>
+      </c>
+      <c r="D9" s="3">
+        <v>68</v>
+      </c>
+      <c r="E9" s="3">
+        <v>28.1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7.5399999999999998E-3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>11.77</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>20.384739803199999</v>
+      </c>
+      <c r="L9" s="3">
+        <v>19.865859366799999</v>
+      </c>
+      <c r="M9" s="3">
+        <v>20.582614873400001</v>
+      </c>
+      <c r="N9" s="3">
+        <v>19.351392931100001</v>
+      </c>
+      <c r="O9" s="3">
+        <v>19.078380141899999</v>
+      </c>
+      <c r="P9" s="3">
+        <v>18.545457919499999</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>18.682766750100001</v>
+      </c>
+      <c r="R9" s="3">
+        <v>18.185879876400001</v>
+      </c>
+      <c r="S9" s="3">
+        <v>19.024336851800001</v>
+      </c>
+      <c r="T9" s="3">
+        <v>19.184090535799999</v>
+      </c>
+      <c r="U9" s="3">
+        <v>18.988194303499998</v>
+      </c>
+      <c r="V9" s="3">
+        <v>18.147742195999999</v>
+      </c>
+      <c r="W9" s="3">
+        <v>18.2865118283</v>
+      </c>
+      <c r="X9" s="3">
+        <v>17.911377488500001</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>18.759901980799999</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>18.294060316900001</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>18.215331845800002</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>19.5830846028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4">
+        <v>42906</v>
+      </c>
+      <c r="C10" s="4">
+        <v>42837</v>
+      </c>
+      <c r="D10" s="3">
+        <v>69</v>
+      </c>
+      <c r="E10" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>9.89</v>
+      </c>
+      <c r="H10" s="3">
+        <v>9.89</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
+        <v>16.4320610473</v>
+      </c>
+      <c r="L10" s="3">
+        <v>16.0352964028</v>
+      </c>
+      <c r="M10" s="3">
+        <v>15.606455303100001</v>
+      </c>
+      <c r="N10" s="3">
+        <v>15.11706175</v>
+      </c>
+      <c r="O10" s="3">
+        <v>15.41504359</v>
+      </c>
+      <c r="P10" s="3">
+        <v>15.30553961</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>14.7977742353</v>
+      </c>
+      <c r="R10" s="3">
+        <v>12.019621512600001</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4">
+        <v>42892</v>
+      </c>
+      <c r="C11" s="4">
+        <v>42790</v>
+      </c>
+      <c r="D11" s="3">
+        <v>102</v>
+      </c>
+      <c r="E11" s="3">
+        <v>27.2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.008E-2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>10.06</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>15.946210500899999</v>
+      </c>
+      <c r="L11">
+        <v>15.651196453800001</v>
+      </c>
+      <c r="M11">
+        <v>15.8241885041</v>
+      </c>
+      <c r="N11">
+        <v>15.6978405449</v>
+      </c>
+      <c r="O11">
+        <v>15.569569750099999</v>
+      </c>
+      <c r="P11">
+        <v>16.120118176199998</v>
+      </c>
+      <c r="Q11">
+        <v>16.107522596199999</v>
+      </c>
+      <c r="R11">
+        <v>16.0808797742</v>
+      </c>
+      <c r="S11">
+        <v>15.187117279200001</v>
+      </c>
+      <c r="T11">
+        <v>15.420365846399999</v>
+      </c>
+      <c r="U11">
+        <v>15.848309390900001</v>
+      </c>
+      <c r="V11">
+        <v>16.127992250199998</v>
+      </c>
+      <c r="W11">
+        <v>15.382839580500001</v>
+      </c>
+      <c r="X11">
+        <v>15.541826265099999</v>
+      </c>
+      <c r="Y11">
+        <v>15.125064134600001</v>
+      </c>
+      <c r="Z11">
+        <v>15.3995814769</v>
+      </c>
+      <c r="AA11">
+        <v>15.413669261700001</v>
+      </c>
+      <c r="AB11">
+        <v>14.993174273999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4">
+        <v>42895</v>
+      </c>
+      <c r="C12" s="4">
+        <v>42790</v>
+      </c>
+      <c r="D12" s="3">
+        <v>105</v>
+      </c>
+      <c r="E12" s="3">
+        <v>28.3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.286E-2</v>
+      </c>
+      <c r="H12" s="3">
+        <v>10.74</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>34.5434374584</v>
+      </c>
+      <c r="L12">
+        <v>34.037908207299999</v>
+      </c>
+      <c r="M12">
+        <v>33.888763412400003</v>
+      </c>
+      <c r="N12">
+        <v>34.636821652800002</v>
+      </c>
+      <c r="O12">
+        <v>34.708394916300001</v>
+      </c>
+      <c r="P12">
+        <v>34.103717418400002</v>
+      </c>
+      <c r="Q12">
+        <v>35.2764624482</v>
+      </c>
+      <c r="R12">
+        <v>32.775185875200002</v>
+      </c>
+      <c r="S12">
+        <v>33.982893879499997</v>
+      </c>
+      <c r="T12">
+        <v>32.523016676099999</v>
+      </c>
+      <c r="U12">
+        <v>32.0692897801</v>
+      </c>
+      <c r="V12">
+        <v>33.447717902000001</v>
+      </c>
+      <c r="W12">
+        <v>34.084343663200002</v>
+      </c>
+      <c r="X12">
+        <v>34.414300633000003</v>
+      </c>
+      <c r="Y12">
+        <v>34.622088073900002</v>
+      </c>
+      <c r="Z12">
+        <v>34.770231876700002</v>
+      </c>
+      <c r="AA12">
+        <v>34.799586441999999</v>
+      </c>
+      <c r="AB12">
+        <v>34.247070243400003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4">
+        <v>42895</v>
+      </c>
+      <c r="C13" s="4">
+        <v>42790</v>
+      </c>
+      <c r="D13" s="3">
+        <v>105</v>
+      </c>
+      <c r="E13" s="3">
+        <v>28.3</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.0330000000000001E-2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>11.68</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>37.246324838600003</v>
+      </c>
+      <c r="L13">
+        <v>36.271746227199998</v>
+      </c>
+      <c r="M13">
+        <v>36.307321339200001</v>
+      </c>
+      <c r="N13">
+        <v>36.560435156300002</v>
+      </c>
+      <c r="O13">
+        <v>36.788073756999999</v>
+      </c>
+      <c r="P13">
+        <v>37.482866377999997</v>
+      </c>
+      <c r="Q13">
+        <v>40.698962503700002</v>
+      </c>
+      <c r="R13">
+        <v>40.1160512039</v>
+      </c>
+      <c r="S13">
+        <v>42.025486311199998</v>
+      </c>
+      <c r="T13">
+        <v>42.412572366900001</v>
+      </c>
+      <c r="U13">
+        <v>43.245514694999997</v>
+      </c>
+      <c r="V13">
+        <v>44.135935651799997</v>
+      </c>
+      <c r="W13">
+        <v>42.2906459326</v>
+      </c>
+      <c r="X13">
+        <v>42.180198909399998</v>
+      </c>
+      <c r="Y13">
+        <v>42.520595833000002</v>
+      </c>
+      <c r="Z13">
+        <v>43.2570954499</v>
+      </c>
+      <c r="AA13">
+        <v>43.243046683899998</v>
+      </c>
+      <c r="AB13">
+        <v>43.070177149800003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4">
+        <v>42899</v>
+      </c>
+      <c r="C14" s="4">
+        <v>42837</v>
+      </c>
+      <c r="D14" s="3">
+        <v>62</v>
+      </c>
+      <c r="E14" s="3">
+        <v>25.4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>9.4599999999999997E-3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>10.32</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>26.1838905394</v>
+      </c>
+      <c r="L14">
+        <v>25.5997306089</v>
+      </c>
+      <c r="M14">
+        <v>32.004815986600001</v>
+      </c>
+      <c r="N14">
+        <v>24.720425455800001</v>
+      </c>
+      <c r="O14">
+        <v>26.233995505799999</v>
+      </c>
+      <c r="P14">
+        <v>25.323301996000001</v>
+      </c>
+      <c r="Q14">
+        <v>25.946446492500002</v>
+      </c>
+      <c r="R14">
+        <v>26.421156516</v>
+      </c>
+      <c r="S14">
+        <v>25.827144478099999</v>
+      </c>
+      <c r="T14">
+        <v>25.421464828800001</v>
+      </c>
+      <c r="U14">
+        <v>25.823072465900001</v>
+      </c>
+      <c r="V14">
+        <v>25.423446510800002</v>
+      </c>
+      <c r="W14">
+        <v>16.531135482300002</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="3">
+        <v>29</v>
+      </c>
+      <c r="B15" s="4">
+        <v>42901</v>
+      </c>
+      <c r="C15" s="4">
+        <v>42837</v>
+      </c>
+      <c r="D15" s="3">
+        <v>64</v>
+      </c>
+      <c r="E15" s="3">
+        <v>25.2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1.106E-2</v>
+      </c>
+      <c r="H15" s="3">
+        <v>12.01</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15">
+        <v>27.953300887699999</v>
+      </c>
+      <c r="L15">
+        <v>24.107064932499998</v>
+      </c>
+      <c r="M15">
+        <v>22.844517238200002</v>
+      </c>
+      <c r="N15">
+        <v>23.2394605836</v>
+      </c>
+      <c r="O15">
+        <v>23.5848158296</v>
+      </c>
+      <c r="P15">
+        <v>22.666908483</v>
+      </c>
+      <c r="Q15">
+        <v>29.637981574099999</v>
+      </c>
+      <c r="R15">
+        <v>26.033203264800001</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4">
+        <v>42902</v>
+      </c>
+      <c r="C16" s="4">
+        <v>42837</v>
+      </c>
+      <c r="D16" s="3">
+        <v>65</v>
+      </c>
+      <c r="E16" s="3">
+        <v>26</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>9.8600000000000007E-3</v>
+      </c>
+      <c r="H16" s="3">
+        <v>11.48</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <v>18.8484570018</v>
+      </c>
+      <c r="L16">
+        <v>18.8467079851</v>
+      </c>
+      <c r="M16">
+        <v>19.896800397500002</v>
+      </c>
+      <c r="N16">
+        <v>20.364626930499998</v>
+      </c>
+      <c r="O16">
+        <v>20.545063183100002</v>
+      </c>
+      <c r="P16">
+        <v>19.9518072991</v>
+      </c>
+      <c r="Q16">
+        <v>19.8071778407</v>
+      </c>
+      <c r="R16">
+        <v>20.646755968000001</v>
+      </c>
+      <c r="S16">
+        <v>19.998183246100002</v>
+      </c>
+      <c r="T16">
+        <v>20.4719065291</v>
+      </c>
+      <c r="U16">
+        <v>20.4346509891</v>
+      </c>
+      <c r="V16">
+        <v>20.013341331500001</v>
+      </c>
+      <c r="W16">
+        <v>20.573114851900002</v>
+      </c>
+      <c r="X16">
+        <v>20.203109762</v>
+      </c>
+      <c r="Y16">
+        <v>20.221993598000001</v>
+      </c>
+      <c r="Z16">
+        <v>20.734751580600001</v>
+      </c>
+      <c r="AA16">
+        <v>21.530549387499999</v>
+      </c>
+      <c r="AB16">
+        <v>21.283510754800002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3">
+        <v>31</v>
+      </c>
+      <c r="B17" s="4">
+        <v>42902</v>
+      </c>
+      <c r="C17" s="4">
+        <v>42837</v>
+      </c>
+      <c r="D17" s="3">
+        <v>65</v>
+      </c>
+      <c r="E17" s="3">
+        <v>26</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1.154E-2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>10.45</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17">
+        <v>14.4461927578</v>
+      </c>
+      <c r="L17">
+        <v>13.3580770842</v>
+      </c>
+      <c r="M17">
+        <v>12.8127139665</v>
+      </c>
+      <c r="N17">
+        <v>12.5738114212</v>
+      </c>
+      <c r="O17">
+        <v>12.178504647700001</v>
+      </c>
+      <c r="P17">
+        <v>12.158095147999999</v>
+      </c>
+      <c r="Q17">
+        <v>12.3438093001</v>
+      </c>
+      <c r="R17">
+        <v>12.567116416599999</v>
+      </c>
+      <c r="S17">
+        <v>11.9707832701</v>
+      </c>
+      <c r="T17">
+        <v>12.1213234281</v>
+      </c>
+      <c r="U17">
+        <v>11.4001097851</v>
+      </c>
+      <c r="V17">
+        <v>11.5393990667</v>
+      </c>
+      <c r="W17">
+        <v>11.2227276728</v>
+      </c>
+      <c r="X17">
+        <v>11.0325270907</v>
+      </c>
+      <c r="Y17">
+        <v>11.2905230352</v>
+      </c>
+      <c r="Z17">
+        <v>11.1271950626</v>
+      </c>
+      <c r="AA17">
+        <v>11.1560200199</v>
+      </c>
+      <c r="AB17">
+        <v>11.0431814601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="3">
+        <v>32</v>
+      </c>
+      <c r="B18" s="4">
+        <v>42905</v>
+      </c>
+      <c r="C18" s="4">
+        <v>42837</v>
+      </c>
+      <c r="D18" s="3">
+        <v>68</v>
+      </c>
+      <c r="E18" s="3">
+        <v>28.1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>7.5399999999999998E-3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>11.77</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18">
+        <v>25.548472226800001</v>
+      </c>
+      <c r="L18">
+        <v>25.0687632564</v>
+      </c>
+      <c r="M18">
+        <v>25.028350761599999</v>
+      </c>
+      <c r="N18">
+        <v>24.382776289300001</v>
+      </c>
+      <c r="O18">
+        <v>24.274379567</v>
+      </c>
+      <c r="P18">
+        <v>23.380735582300002</v>
+      </c>
+      <c r="Q18">
+        <v>24.402171117999998</v>
+      </c>
+      <c r="R18">
+        <v>21.8023172141</v>
+      </c>
+      <c r="S18">
+        <v>23.6070839325</v>
+      </c>
+      <c r="T18">
+        <v>23.696361195800002</v>
+      </c>
+      <c r="U18">
+        <v>23.490332799099999</v>
+      </c>
+      <c r="V18">
+        <v>22.296304899799999</v>
+      </c>
+      <c r="W18">
+        <v>22.345638928700001</v>
+      </c>
+      <c r="X18">
+        <v>23.110460293799999</v>
+      </c>
+      <c r="Y18">
+        <v>24.35053723</v>
+      </c>
+      <c r="Z18">
+        <v>25.472928863500002</v>
+      </c>
+      <c r="AA18">
+        <v>25.525415886400001</v>
+      </c>
+      <c r="AB18">
+        <v>26.297387721500002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3">
+        <v>33</v>
+      </c>
+      <c r="B19" s="4">
+        <v>42906</v>
+      </c>
+      <c r="C19" s="4">
+        <v>42837</v>
+      </c>
+      <c r="D19" s="3">
+        <v>69</v>
+      </c>
+      <c r="E19" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>9.89</v>
+      </c>
+      <c r="H19" s="3">
+        <v>9.89</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19">
+        <v>19.262701065800002</v>
+      </c>
+      <c r="L19">
+        <v>18.821936771299999</v>
+      </c>
+      <c r="M19">
+        <v>18.3119430048</v>
+      </c>
+      <c r="N19">
+        <v>18.0680364</v>
+      </c>
+      <c r="O19">
+        <v>18.631664279999999</v>
+      </c>
+      <c r="P19">
+        <v>18.457241539999998</v>
+      </c>
+      <c r="Q19">
+        <v>17.425605782600002</v>
+      </c>
+      <c r="R19">
+        <v>15.063834959999999</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="3">
+        <v>25</v>
+      </c>
+      <c r="B20" s="4">
+        <v>42892</v>
+      </c>
+      <c r="C20" s="4">
+        <v>42790</v>
+      </c>
+      <c r="D20" s="3">
+        <v>102</v>
+      </c>
+      <c r="E20" s="3">
+        <v>27.2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1.008E-2</v>
+      </c>
+      <c r="H20" s="3">
+        <v>10.06</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="2">
+        <v>24.096385959999999</v>
+      </c>
+      <c r="L20" s="2">
+        <v>23.78121376</v>
+      </c>
+      <c r="M20" s="2">
+        <v>25.873220440000001</v>
+      </c>
+      <c r="N20" s="2">
+        <v>26.143791199999999</v>
+      </c>
+      <c r="O20" s="2">
+        <v>26.212320330000001</v>
+      </c>
+      <c r="P20" s="2">
+        <v>26.24671936</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>25.3807106</v>
+      </c>
+      <c r="R20" s="2">
+        <v>24.721878050000001</v>
+      </c>
+      <c r="S20" s="2">
+        <v>26.007802959999999</v>
+      </c>
+      <c r="T20" s="2">
+        <v>25.806451800000001</v>
+      </c>
+      <c r="U20" s="2">
+        <v>26.350461960000001</v>
+      </c>
+      <c r="V20" s="2">
+        <v>24.330900190000001</v>
+      </c>
+      <c r="W20" s="2">
+        <v>28.129394529999999</v>
+      </c>
+      <c r="X20" s="2">
+        <v>27.17391396</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>29.325513839999999</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>23.696681980000001</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>22.34636879</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>24.301336289999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="3">
+        <v>26</v>
+      </c>
+      <c r="B21" s="4">
+        <v>42895</v>
+      </c>
+      <c r="C21" s="4">
+        <v>42790</v>
+      </c>
+      <c r="D21" s="3">
+        <v>105</v>
+      </c>
+      <c r="E21" s="3">
+        <v>28.3</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1.286E-2</v>
+      </c>
+      <c r="H21" s="3">
+        <v>10.74</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="2">
+        <v>57.30659103</v>
+      </c>
+      <c r="L21" s="2">
+        <v>57.97101593</v>
+      </c>
+      <c r="M21" s="2">
+        <v>57.471263890000003</v>
+      </c>
+      <c r="N21" s="2">
+        <v>54.794521330000002</v>
+      </c>
+      <c r="O21" s="2">
+        <v>57.636886599999997</v>
+      </c>
+      <c r="P21" s="2">
+        <v>56.818180079999998</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>57.471263890000003</v>
+      </c>
+      <c r="R21" s="2">
+        <v>56.497173310000001</v>
+      </c>
+      <c r="S21" s="2">
+        <v>53.050399779999999</v>
+      </c>
+      <c r="T21" s="2">
+        <v>39.292732239999999</v>
+      </c>
+      <c r="U21" s="2">
+        <v>49.019607540000003</v>
+      </c>
+      <c r="V21" s="2">
+        <v>39.920158389999997</v>
+      </c>
+      <c r="W21" s="2">
+        <v>52.083332059999996</v>
+      </c>
+      <c r="X21" s="2">
+        <v>50.377834319999998</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>56.497173310000001</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>51.679588320000001</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>52.49343872</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>25.83979416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="3">
+        <v>27</v>
+      </c>
+      <c r="B22" s="4">
+        <v>42895</v>
+      </c>
+      <c r="C22" s="4">
+        <v>42790</v>
+      </c>
+      <c r="D22" s="3">
+        <v>105</v>
+      </c>
+      <c r="E22" s="3">
+        <v>28.3</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1.0330000000000001E-2</v>
+      </c>
+      <c r="H22" s="3">
+        <v>11.68</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="2">
+        <v>63.49206161</v>
+      </c>
+      <c r="L22" s="2">
+        <v>63.694267269999997</v>
+      </c>
+      <c r="M22" s="2">
+        <v>63.2911377</v>
+      </c>
+      <c r="N22" s="2">
+        <v>64.724922179999993</v>
+      </c>
+      <c r="O22" s="2">
+        <v>62.893081670000001</v>
+      </c>
+      <c r="P22" s="2">
+        <v>58.651027679999999</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>66.445182799999998</v>
+      </c>
+      <c r="R22" s="2">
+        <v>65.789474490000003</v>
+      </c>
+      <c r="S22" s="2">
+        <v>69.444442749999993</v>
+      </c>
+      <c r="T22" s="2">
+        <v>72.463768009999995</v>
+      </c>
+      <c r="U22" s="2">
+        <v>66.22516632</v>
+      </c>
+      <c r="V22" s="2">
+        <v>69.686408999999998</v>
+      </c>
+      <c r="W22" s="2">
+        <v>67.114097599999994</v>
+      </c>
+      <c r="X22" s="2">
+        <v>66.666664119999993</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>65.573768619999996</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>67.114097599999994</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>68.259384159999996</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>66.006599429999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="3">
+        <v>28</v>
+      </c>
+      <c r="B23" s="4">
+        <v>42899</v>
+      </c>
+      <c r="C23" s="4">
+        <v>42837</v>
+      </c>
+      <c r="D23" s="3">
+        <v>62</v>
+      </c>
+      <c r="E23" s="3">
+        <v>25.4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>9.4599999999999997E-3</v>
+      </c>
+      <c r="H23" s="3">
+        <v>10.32</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="2">
+        <v>40.322582240000003</v>
+      </c>
+      <c r="L23" s="2">
+        <v>38.910507199999998</v>
+      </c>
+      <c r="M23" s="2">
+        <v>43.103446959999999</v>
+      </c>
+      <c r="N23" s="2">
+        <v>38.75968933</v>
+      </c>
+      <c r="O23" s="2">
+        <v>39.138942720000003</v>
+      </c>
+      <c r="P23" s="2">
+        <v>37.807182310000002</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>38.986354830000003</v>
+      </c>
+      <c r="R23" s="2">
+        <v>38.02281189</v>
+      </c>
+      <c r="S23" s="2">
+        <v>38.387714389999999</v>
+      </c>
+      <c r="T23" s="2">
+        <v>37.664783479999997</v>
+      </c>
+      <c r="U23" s="2">
+        <v>38.535644529999999</v>
+      </c>
+      <c r="V23" s="2">
+        <v>36.496349330000001</v>
+      </c>
+      <c r="W23" s="2">
+        <v>34.18803406</v>
+      </c>
+      <c r="X23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="3">
+        <v>29</v>
+      </c>
+      <c r="B24" s="4">
+        <v>42901</v>
+      </c>
+      <c r="C24" s="4">
+        <v>42837</v>
+      </c>
+      <c r="D24" s="3">
+        <v>64</v>
+      </c>
+      <c r="E24" s="3">
+        <v>25.2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1.106E-2</v>
+      </c>
+      <c r="H24" s="3">
+        <v>12.01</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="2">
+        <v>55.865921020000002</v>
+      </c>
+      <c r="L24" s="2">
+        <v>53.191490170000002</v>
+      </c>
+      <c r="M24" s="2">
+        <v>50.125312809999997</v>
+      </c>
+      <c r="N24" s="2">
+        <v>50.761421200000001</v>
+      </c>
+      <c r="O24" s="2">
+        <v>47.058822630000002</v>
+      </c>
+      <c r="P24" s="2">
+        <v>48.426151279999999</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>57.30659103</v>
+      </c>
+      <c r="R24" s="2">
+        <v>52.63158035</v>
+      </c>
+      <c r="S24" s="2">
+        <v>48.899757389999998</v>
+      </c>
+      <c r="T24" s="2">
+        <v>45.871559140000002</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>44.44444275</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3">
+        <v>30</v>
+      </c>
+      <c r="B25" s="4">
+        <v>42902</v>
+      </c>
+      <c r="C25" s="4">
+        <v>42837</v>
+      </c>
+      <c r="D25" s="3">
+        <v>65</v>
+      </c>
+      <c r="E25" s="3">
+        <v>26</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>9.8600000000000007E-3</v>
+      </c>
+      <c r="H25" s="3">
+        <v>11.48</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="2">
+        <v>37.735847470000003</v>
+      </c>
+      <c r="L25" s="2">
+        <v>84.388183589999997</v>
+      </c>
+      <c r="M25" s="2">
+        <v>35.523979189999999</v>
+      </c>
+      <c r="N25" s="2">
+        <v>43.859649660000002</v>
+      </c>
+      <c r="O25" s="2">
+        <v>35.273368840000003</v>
+      </c>
+      <c r="P25" s="2">
+        <v>42.826553339999997</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>37.950664519999997</v>
+      </c>
+      <c r="R25" s="2">
+        <v>38.75968933</v>
+      </c>
+      <c r="S25" s="2">
+        <v>34.305316929999996</v>
+      </c>
+      <c r="T25" s="2">
+        <v>44.24778748</v>
+      </c>
+      <c r="U25" s="2">
+        <v>37.453182220000002</v>
+      </c>
+      <c r="V25" s="2">
+        <v>41.580039980000002</v>
+      </c>
+      <c r="W25" s="2">
+        <v>40.080162049999998</v>
+      </c>
+      <c r="X25" s="2">
+        <v>50.251255039999997</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>40.322582240000003</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>40.816326140000001</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>45.662101749999998</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>45.454544069999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="3">
+        <v>31</v>
+      </c>
+      <c r="B26" s="4">
+        <v>42902</v>
+      </c>
+      <c r="C26" s="4">
+        <v>42837</v>
+      </c>
+      <c r="D26" s="3">
+        <v>65</v>
+      </c>
+      <c r="E26" s="3">
+        <v>26</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1.154E-2</v>
+      </c>
+      <c r="H26" s="3">
+        <v>10.45</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="2">
+        <v>17.825311660000001</v>
+      </c>
+      <c r="L26" s="2">
+        <v>15.27883911</v>
+      </c>
+      <c r="M26" s="2">
+        <v>14.204545019999999</v>
+      </c>
+      <c r="N26" s="2">
+        <v>14.144271850000001</v>
+      </c>
+      <c r="O26" s="2">
+        <v>14.00560188</v>
+      </c>
+      <c r="P26" s="2">
+        <v>14.94768333</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>15.49186707</v>
+      </c>
+      <c r="R26" s="2">
+        <v>15.003750800000001</v>
+      </c>
+      <c r="S26" s="2">
+        <v>15.64945221</v>
+      </c>
+      <c r="T26" s="2">
+        <v>14.38848877</v>
+      </c>
+      <c r="U26" s="2">
+        <v>14.705882069999999</v>
+      </c>
+      <c r="V26" s="2">
+        <v>13.68925381</v>
+      </c>
+      <c r="W26" s="2">
+        <v>13.33333302</v>
+      </c>
+      <c r="X26" s="2">
+        <v>13.08900547</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>11.862396240000001</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>13.793103220000001</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>13.2802124</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>12.48439407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3">
+        <v>32</v>
+      </c>
+      <c r="B27" s="4">
+        <v>42905</v>
+      </c>
+      <c r="C27" s="4">
+        <v>42837</v>
+      </c>
+      <c r="D27" s="3">
+        <v>68</v>
+      </c>
+      <c r="E27" s="3">
+        <v>28.1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>7.5399999999999998E-3</v>
+      </c>
+      <c r="H27" s="3">
+        <v>11.77</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="5">
+        <v>46.18937683</v>
+      </c>
+      <c r="L27" s="5">
+        <v>49.261085510000001</v>
+      </c>
+      <c r="M27" s="5">
+        <v>44.150112149999998</v>
+      </c>
+      <c r="N27" s="5">
+        <v>48.543689729999997</v>
+      </c>
+      <c r="O27" s="5">
+        <v>42.105262760000002</v>
+      </c>
+      <c r="P27" s="5">
+        <v>52.35602188</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>51.413883210000002</v>
+      </c>
+      <c r="R27" s="5">
+        <v>34.423408510000002</v>
+      </c>
+      <c r="S27" s="5">
+        <v>63.09148407</v>
+      </c>
+      <c r="T27" s="5">
+        <v>60.606060030000002</v>
+      </c>
+      <c r="U27" s="5">
+        <v>37.950664519999997</v>
+      </c>
+      <c r="V27" s="5">
+        <v>39.0625</v>
+      </c>
+      <c r="W27" s="5">
+        <v>39.525691989999999</v>
+      </c>
+      <c r="X27" s="5">
+        <v>42.55319214</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>43.5729866</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>48.076923370000003</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>50.377834319999998</v>
+      </c>
+      <c r="AB27" s="5">
+        <v>50.251255039999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="3">
+        <v>33</v>
+      </c>
+      <c r="B28" s="4">
+        <v>42906</v>
+      </c>
+      <c r="C28" s="4">
+        <v>42837</v>
+      </c>
+      <c r="D28" s="3">
+        <v>69</v>
+      </c>
+      <c r="E28" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>9.89</v>
+      </c>
+      <c r="H28" s="3">
+        <v>9.89</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="2">
+        <v>29.19708061</v>
+      </c>
+      <c r="L28" s="2">
+        <v>25.806451800000001</v>
+      </c>
+      <c r="M28" s="2">
+        <v>27.21088409</v>
+      </c>
+      <c r="N28" s="2">
+        <v>27.247957230000001</v>
+      </c>
+      <c r="O28" s="2">
+        <v>27.624309539999999</v>
+      </c>
+      <c r="P28" s="2">
+        <v>27.397260670000001</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>25.74002647</v>
+      </c>
+      <c r="R28" s="2">
+        <v>22.02643204</v>
+      </c>
+      <c r="S28" s="2">
+        <v>0</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2">
+        <v>0</v>
+      </c>
+      <c r="X28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F91E95-582C-4EDC-80F2-E8E5252419DC}">
+  <dimension ref="A1:AB52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="8.83984375" style="3"/>
+    <col min="2" max="3" width="9.15625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83984375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="7">
+        <v>34</v>
+      </c>
+      <c r="B2" s="8">
+        <v>42755</v>
+      </c>
+      <c r="C2" s="8">
+        <v>42682</v>
+      </c>
+      <c r="D2" s="7">
+        <v>73</v>
+      </c>
+      <c r="E2" s="7">
+        <v>23.1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>8.4700000000000001E-3</v>
+      </c>
+      <c r="H2" s="7">
+        <v>11.9</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="7">
+        <v>20.919615360000002</v>
+      </c>
+      <c r="L2" s="7">
+        <v>19.645386590000001</v>
+      </c>
+      <c r="M2" s="7">
+        <v>20.057434839999999</v>
+      </c>
+      <c r="N2" s="7">
+        <v>17.790701339999998</v>
+      </c>
+      <c r="O2" s="7">
+        <v>18.160598329999999</v>
+      </c>
+      <c r="P2" s="7">
+        <v>17.646913739999999</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>14.1677584</v>
+      </c>
+      <c r="R2" s="7">
+        <v>16.17306769</v>
+      </c>
+      <c r="S2" s="7">
+        <v>15.58179801</v>
+      </c>
+      <c r="T2" s="7">
+        <v>15.300803070000001</v>
+      </c>
+      <c r="U2" s="7">
+        <v>14.248450010000001</v>
+      </c>
+      <c r="V2" s="7">
+        <v>13.177192549999999</v>
+      </c>
+      <c r="W2" s="7">
+        <v>13.113638740000001</v>
+      </c>
+      <c r="X2" s="7">
+        <v>12.22289181</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>11.59431839</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>12.0694143</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>11.255669429999999</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>11.462582749999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="7">
+        <v>35</v>
+      </c>
+      <c r="B3" s="8">
+        <v>42769</v>
+      </c>
+      <c r="C3" s="8">
+        <v>42682</v>
+      </c>
+      <c r="D3" s="7">
+        <v>87</v>
+      </c>
+      <c r="E3" s="7">
+        <v>23.5</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1.0540000000000001E-2</v>
+      </c>
+      <c r="H3" s="7">
+        <v>11.65</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="7">
+        <v>24.43048228</v>
+      </c>
+      <c r="L3" s="7">
+        <v>25.267448900000002</v>
+      </c>
+      <c r="M3" s="7">
+        <v>24.678091779999999</v>
+      </c>
+      <c r="N3" s="7">
+        <v>23.893684709999999</v>
+      </c>
+      <c r="O3" s="7">
+        <v>23.72943703</v>
+      </c>
+      <c r="P3" s="7">
+        <v>24.05153322</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>24.16774972</v>
+      </c>
+      <c r="R3" s="7">
+        <v>24.37883313</v>
+      </c>
+      <c r="S3" s="7">
+        <v>23.98263227</v>
+      </c>
+      <c r="T3" s="7">
+        <v>24.49613587</v>
+      </c>
+      <c r="U3" s="7">
+        <v>24.978211479999999</v>
+      </c>
+      <c r="V3" s="7">
+        <v>25.578828120000001</v>
+      </c>
+      <c r="W3" s="7">
+        <v>25.652294449999999</v>
+      </c>
+      <c r="X3" s="7">
+        <v>25.43638391</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>25.01009912</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>24.57689564</v>
+      </c>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="7">
+        <v>36</v>
+      </c>
+      <c r="B4" s="8">
+        <v>42790</v>
+      </c>
+      <c r="C4" s="8">
+        <v>42705</v>
+      </c>
+      <c r="D4" s="7">
+        <v>85</v>
+      </c>
+      <c r="E4" s="7">
+        <v>25.9</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1.035E-2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>11.41</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="7">
+        <v>28.7195</v>
+      </c>
+      <c r="L4" s="7">
+        <v>28.515219999999999</v>
+      </c>
+      <c r="M4" s="7">
+        <v>28.789770000000001</v>
+      </c>
+      <c r="N4" s="7">
+        <v>28.274380000000001</v>
+      </c>
+      <c r="O4" s="7">
+        <v>28.737010000000001</v>
+      </c>
+      <c r="P4" s="7">
+        <v>29.170459999999999</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>29.727139999999999</v>
+      </c>
+      <c r="R4" s="7">
+        <v>29.116779999999999</v>
+      </c>
+      <c r="S4" s="7">
+        <v>28.588380000000001</v>
+      </c>
+      <c r="T4" s="7">
+        <v>27.911930000000002</v>
+      </c>
+      <c r="U4" s="7">
+        <v>27.733170000000001</v>
+      </c>
+      <c r="V4" s="7">
+        <v>27.9557</v>
+      </c>
+      <c r="W4" s="7">
+        <v>27.807410000000001</v>
+      </c>
+      <c r="X4" s="7">
+        <v>27.587160000000001</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>27.447019999999998</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>27.502400000000002</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>27.576160000000002</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>27.49052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="7">
+        <v>37</v>
+      </c>
+      <c r="B5" s="8">
+        <v>42790</v>
+      </c>
+      <c r="C5" s="8">
+        <v>42705</v>
+      </c>
+      <c r="D5" s="7">
+        <v>69</v>
+      </c>
+      <c r="E5" s="7">
+        <v>25.9</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1.1480000000000001E-2</v>
+      </c>
+      <c r="H5" s="7">
+        <v>10.65</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="7">
+        <v>17.1434</v>
+      </c>
+      <c r="L5" s="7">
+        <v>17.01717</v>
+      </c>
+      <c r="M5" s="7">
+        <v>16.42858</v>
+      </c>
+      <c r="N5" s="7">
+        <v>15.631790000000001</v>
+      </c>
+      <c r="O5" s="7">
+        <v>14.71358</v>
+      </c>
+      <c r="P5" s="7">
+        <v>15.938190000000001</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>14.25376</v>
+      </c>
+      <c r="R5" s="7">
+        <v>12.138389999999999</v>
+      </c>
+      <c r="S5" s="7">
+        <v>11.1685</v>
+      </c>
+      <c r="T5" s="7">
+        <v>12.0191</v>
+      </c>
+      <c r="U5" s="7">
+        <v>12.25985</v>
+      </c>
+      <c r="V5" s="7">
+        <v>12.590059999999999</v>
+      </c>
+      <c r="W5" s="7">
+        <v>10.46862</v>
+      </c>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7">
+        <v>11.166069999999999</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>11.152480000000001</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>11.34399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="7">
+        <v>38</v>
+      </c>
+      <c r="B6" s="8">
+        <v>42796</v>
+      </c>
+      <c r="C6" s="8">
+        <v>42705</v>
+      </c>
+      <c r="D6" s="7">
+        <v>91</v>
+      </c>
+      <c r="E6" s="7">
+        <v>25.2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>9.0799999999999995E-3</v>
+      </c>
+      <c r="H6" s="7">
+        <v>12.53</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="7">
+        <v>20.07208</v>
+      </c>
+      <c r="L6" s="7">
+        <v>20.216650000000001</v>
+      </c>
+      <c r="M6" s="7">
+        <v>20.331869999999999</v>
+      </c>
+      <c r="N6" s="7">
+        <v>19.792280000000002</v>
+      </c>
+      <c r="O6" s="7">
+        <v>18.723949999999999</v>
+      </c>
+      <c r="P6" s="7">
+        <v>18.216699999999999</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>18.25217</v>
+      </c>
+      <c r="R6" s="7">
+        <v>17.316520000000001</v>
+      </c>
+      <c r="S6" s="7">
+        <v>16.412690000000001</v>
+      </c>
+      <c r="T6" s="7">
+        <v>15.639699999999999</v>
+      </c>
+      <c r="U6" s="7">
+        <v>15.377560000000001</v>
+      </c>
+      <c r="V6" s="7">
+        <v>15.76515</v>
+      </c>
+      <c r="W6" s="7">
+        <v>16.014410000000002</v>
+      </c>
+      <c r="X6" s="7">
+        <v>15.70645</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>15.9176</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>16.615919999999999</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>15.87067</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>16.124369999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="7">
+        <v>39</v>
+      </c>
+      <c r="B7" s="8">
+        <v>42822</v>
+      </c>
+      <c r="C7" s="8">
+        <v>42705</v>
+      </c>
+      <c r="D7" s="7">
+        <v>117</v>
+      </c>
+      <c r="E7" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>8.26E-3</v>
+      </c>
+      <c r="H7" s="7">
+        <v>12.49</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="7">
+        <v>20.149332019999999</v>
+      </c>
+      <c r="L7" s="7">
+        <v>17.852975470000001</v>
+      </c>
+      <c r="M7" s="7">
+        <v>17.837559389999999</v>
+      </c>
+      <c r="N7" s="7">
+        <v>18.100621539999999</v>
+      </c>
+      <c r="O7" s="7">
+        <v>19.0409571</v>
+      </c>
+      <c r="P7" s="7">
+        <v>19.066702759999998</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>19.099338639999999</v>
+      </c>
+      <c r="R7" s="7">
+        <v>20.677534810000001</v>
+      </c>
+      <c r="S7" s="7">
+        <v>21.411981430000001</v>
+      </c>
+      <c r="T7" s="7">
+        <v>20.668262439999999</v>
+      </c>
+      <c r="U7" s="7">
+        <v>19.273709709999999</v>
+      </c>
+      <c r="V7" s="7">
+        <v>18.847070219999999</v>
+      </c>
+      <c r="W7" s="7">
+        <v>19.736517240000001</v>
+      </c>
+      <c r="X7" s="7">
+        <v>19.229556030000001</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>18.730846669999998</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>19.431675389999999</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>18.92678605</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>18.026495529999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="7">
+        <v>40</v>
+      </c>
+      <c r="B8" s="8">
+        <v>42825</v>
+      </c>
+      <c r="C8" s="8">
+        <v>42755</v>
+      </c>
+      <c r="D8" s="7">
+        <v>70</v>
+      </c>
+      <c r="E8" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.142E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>10.83</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="7">
+        <v>29.955416012299999</v>
+      </c>
+      <c r="L8" s="7">
+        <v>30.643058354099999</v>
+      </c>
+      <c r="M8" s="7">
+        <v>31.145086432500001</v>
+      </c>
+      <c r="N8" s="7">
+        <v>31.023114173500002</v>
+      </c>
+      <c r="O8" s="7">
+        <v>30.827895505400001</v>
+      </c>
+      <c r="P8" s="7">
+        <v>30.845029266899999</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0</v>
+      </c>
+      <c r="S8" s="7">
+        <v>0</v>
+      </c>
+      <c r="T8" s="7">
+        <v>0</v>
+      </c>
+      <c r="U8" s="7">
+        <v>0</v>
+      </c>
+      <c r="V8" s="7">
+        <v>0</v>
+      </c>
+      <c r="W8" s="7">
+        <v>0</v>
+      </c>
+      <c r="X8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="7">
+        <v>41</v>
+      </c>
+      <c r="B9" s="8">
+        <v>42838</v>
+      </c>
+      <c r="C9" s="8">
+        <v>42755</v>
+      </c>
+      <c r="D9" s="7">
+        <v>83</v>
+      </c>
+      <c r="E9" s="7">
+        <v>22.1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="7">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="H9" s="7">
+        <v>9.48</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="7">
+        <v>7.60162081017</v>
+      </c>
+      <c r="L9" s="7">
+        <v>7.4517546445100002</v>
+      </c>
+      <c r="M9" s="7">
+        <v>7.3150647601200003</v>
+      </c>
+      <c r="N9" s="7">
+        <v>7.2580049366499999</v>
+      </c>
+      <c r="O9" s="7">
+        <v>6.4728628754599997</v>
+      </c>
+      <c r="P9" s="7">
+        <v>4.8912521401599998</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>7.5994843241499996</v>
+      </c>
+      <c r="R9" s="7">
+        <v>7.3784131713100001</v>
+      </c>
+      <c r="S9" s="7">
+        <v>7.6427840914900003</v>
+      </c>
+      <c r="T9" s="7">
+        <v>5.6494807147200001</v>
+      </c>
+      <c r="U9" s="7">
+        <v>6.0555685056500002</v>
+      </c>
+      <c r="V9" s="7">
+        <v>7.0144062639699998</v>
+      </c>
+      <c r="W9" s="7">
+        <v>6.9848987065700001</v>
+      </c>
+      <c r="X9" s="7">
+        <v>5.8050614850200004</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>5.5641643323699999</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>4.3193488444200003</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>4.2241079161700004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="7">
+        <v>42</v>
+      </c>
+      <c r="B10" s="8">
+        <v>42839</v>
+      </c>
+      <c r="C10" s="8">
+        <v>42755</v>
+      </c>
+      <c r="D10" s="7">
+        <v>84</v>
+      </c>
+      <c r="E10" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>9.8300000000000002E-3</v>
+      </c>
+      <c r="H10" s="7">
+        <v>11.42</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="7">
+        <v>18.918858523600001</v>
+      </c>
+      <c r="L10" s="7">
+        <v>20.106408392300001</v>
+      </c>
+      <c r="M10" s="7">
+        <v>20.2913851751</v>
+      </c>
+      <c r="N10" s="7">
+        <v>21.302330381099999</v>
+      </c>
+      <c r="O10" s="7">
+        <v>22.063812418200001</v>
+      </c>
+      <c r="P10" s="7">
+        <v>21.561886579500001</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>24.019200312700001</v>
+      </c>
+      <c r="R10" s="7">
+        <v>25.404987211200002</v>
+      </c>
+      <c r="S10" s="7">
+        <v>25.291089062800001</v>
+      </c>
+      <c r="T10" s="7">
+        <v>24.189711577899999</v>
+      </c>
+      <c r="U10" s="7">
+        <v>22.986981397600001</v>
+      </c>
+      <c r="V10" s="7">
+        <v>22.660721145299998</v>
+      </c>
+      <c r="W10" s="7">
+        <v>22.330380834100001</v>
+      </c>
+      <c r="X10" s="7">
+        <v>22.2192233311</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>22.3552768851</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>22.471946043799999</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>21.884586527</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>22.014622347500001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="7">
+        <v>43</v>
+      </c>
+      <c r="B11" s="8">
+        <v>42839</v>
+      </c>
+      <c r="C11" s="8">
+        <v>42755</v>
+      </c>
+      <c r="D11" s="7">
+        <v>84</v>
+      </c>
+      <c r="E11" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>9.4500000000000001E-3</v>
+      </c>
+      <c r="H11" s="7">
+        <v>12.37</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="7">
+        <v>20.737162685400001</v>
+      </c>
+      <c r="L11" s="7">
+        <v>20.774948266700001</v>
+      </c>
+      <c r="M11" s="7">
+        <v>20.671795437899998</v>
+      </c>
+      <c r="N11" s="7">
+        <v>20.218203225300002</v>
+      </c>
+      <c r="O11" s="7">
+        <v>20.0718845098</v>
+      </c>
+      <c r="P11" s="7">
+        <v>20.070660361000002</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>19.906588183</v>
+      </c>
+      <c r="R11" s="7">
+        <v>19.670000394300001</v>
+      </c>
+      <c r="S11" s="7">
+        <v>19.361354911599999</v>
+      </c>
+      <c r="T11" s="7">
+        <v>19.403443645300001</v>
+      </c>
+      <c r="U11" s="7">
+        <v>19.829358680399999</v>
+      </c>
+      <c r="V11" s="7">
+        <v>19.503188712299998</v>
+      </c>
+      <c r="W11" s="7">
+        <v>19.279090471</v>
+      </c>
+      <c r="X11" s="7">
+        <v>19.660941047800002</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>19.7171426088</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>19.673344853300001</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>19.497706518299999</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>19.9190889136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="7">
+        <v>44</v>
+      </c>
+      <c r="B12" s="8">
+        <v>42845</v>
+      </c>
+      <c r="C12" s="8">
+        <v>42755</v>
+      </c>
+      <c r="D12" s="7">
+        <v>90</v>
+      </c>
+      <c r="E12" s="7">
+        <v>22.9</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="7">
+        <v>10.75</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="7">
+        <v>23.389142760399999</v>
+      </c>
+      <c r="L12" s="7">
+        <v>22.0875335759</v>
+      </c>
+      <c r="M12" s="7">
+        <v>22.456070009400001</v>
+      </c>
+      <c r="N12" s="7">
+        <v>21.407985358400001</v>
+      </c>
+      <c r="O12" s="7">
+        <v>20.969677701399998</v>
+      </c>
+      <c r="P12" s="7">
+        <v>21.3548434159</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>22.602319610399999</v>
+      </c>
+      <c r="R12" s="7">
+        <v>21.095590205299999</v>
+      </c>
+      <c r="S12" s="7">
+        <v>19.892460162199999</v>
+      </c>
+      <c r="T12" s="7">
+        <v>20.996802654900002</v>
+      </c>
+      <c r="U12" s="7">
+        <v>20.389295964799999</v>
+      </c>
+      <c r="V12" s="7">
+        <v>20.435869845199999</v>
+      </c>
+      <c r="W12" s="7">
+        <v>20.264957429999999</v>
+      </c>
+      <c r="X12" s="7">
+        <v>19.096225359999998</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>19.1508173</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>18.533815570000002</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>18.87136688</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>18.528798630000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="7">
+        <v>45</v>
+      </c>
+      <c r="B13" s="8">
+        <v>42846</v>
+      </c>
+      <c r="C13" s="8">
+        <v>42755</v>
+      </c>
+      <c r="D13" s="7">
+        <v>91</v>
+      </c>
+      <c r="E13" s="7">
+        <v>28.9</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1.125E-2</v>
+      </c>
+      <c r="H13" s="7">
+        <v>10.59</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="7">
+        <v>16.763686038300001</v>
+      </c>
+      <c r="L13" s="7">
+        <v>14.3160063304</v>
+      </c>
+      <c r="M13" s="7">
+        <v>14.393834523200001</v>
+      </c>
+      <c r="N13" s="7">
+        <v>14.569385888099999</v>
+      </c>
+      <c r="O13" s="7">
+        <v>14.4760296833</v>
+      </c>
+      <c r="P13" s="7">
+        <v>13.673886553499999</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>15.918577963700001</v>
+      </c>
+      <c r="R13" s="7">
+        <v>15.7528798313</v>
+      </c>
+      <c r="S13" s="7">
+        <v>16.368075445799999</v>
+      </c>
+      <c r="T13" s="7">
+        <v>17.211507473899999</v>
+      </c>
+      <c r="U13" s="7">
+        <v>0</v>
+      </c>
+      <c r="V13" s="7">
+        <v>2.4315108479699998</v>
+      </c>
+      <c r="W13" s="7">
+        <v>0</v>
+      </c>
+      <c r="X13" s="7">
+        <v>7.1288739120800004</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>10.5649896591</v>
+      </c>
+      <c r="Z13" s="7">
+        <v>10.5710089766</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>11.6902567363</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>11.871508975899999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="7">
+        <v>46</v>
+      </c>
+      <c r="B14" s="8">
+        <v>42852</v>
+      </c>
+      <c r="C14" s="8">
+        <v>42790</v>
+      </c>
+      <c r="D14" s="7">
+        <v>62</v>
+      </c>
+      <c r="E14" s="7">
+        <v>19.7</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>7.8300000000000002E-3</v>
+      </c>
+      <c r="H14" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="7">
+        <v>36.844936463700002</v>
+      </c>
+      <c r="L14" s="7">
+        <v>36.294623414599997</v>
+      </c>
+      <c r="M14" s="7">
+        <v>36.052673196999997</v>
+      </c>
+      <c r="N14" s="7">
+        <v>35.870326349700001</v>
+      </c>
+      <c r="O14" s="7">
+        <v>35.416880231299999</v>
+      </c>
+      <c r="P14" s="7">
+        <v>35.405236723400002</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>35.8357024353</v>
+      </c>
+      <c r="R14" s="7">
+        <v>34.251948423400002</v>
+      </c>
+      <c r="S14" s="7">
+        <v>33.287200271499998</v>
+      </c>
+      <c r="T14" s="7">
+        <v>32.050913296600001</v>
+      </c>
+      <c r="U14" s="7">
+        <v>32.6211274944</v>
+      </c>
+      <c r="V14" s="7">
+        <v>33.073245282199998</v>
+      </c>
+      <c r="W14" s="7">
+        <v>32.646261425900001</v>
+      </c>
+      <c r="X14" s="7">
+        <v>32.360599776199997</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>32.204171291400002</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>33.233983734600002</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>32.512606127200002</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>32.1123959042</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="7">
+        <v>47</v>
+      </c>
+      <c r="B15" s="8">
+        <v>42859</v>
+      </c>
+      <c r="C15" s="8">
+        <v>42790</v>
+      </c>
+      <c r="D15" s="7">
+        <v>69</v>
+      </c>
+      <c r="E15" s="7">
+        <v>25</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1.052E-2</v>
+      </c>
+      <c r="H15" s="7">
+        <v>11.24</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="7">
+        <v>20.801606835499999</v>
+      </c>
+      <c r="L15" s="7">
+        <v>17.682633234899999</v>
+      </c>
+      <c r="M15" s="7">
+        <v>28.709004723900001</v>
+      </c>
+      <c r="N15" s="7">
+        <v>18.126590266699999</v>
+      </c>
+      <c r="O15" s="7">
+        <v>17.917684166299999</v>
+      </c>
+      <c r="P15" s="7">
+        <v>17.9122717612</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>18.338460483199999</v>
+      </c>
+      <c r="R15" s="7">
+        <v>18.886316074300002</v>
+      </c>
+      <c r="S15" s="7">
+        <v>18.568954780799999</v>
+      </c>
+      <c r="T15" s="7">
+        <v>18.112198597199999</v>
+      </c>
+      <c r="U15" s="7">
+        <v>17.4006294729</v>
+      </c>
+      <c r="V15" s="7">
+        <v>16.7413681584</v>
+      </c>
+      <c r="W15" s="7">
+        <v>15.8394158734</v>
+      </c>
+      <c r="X15" s="7">
+        <v>15.1907491232</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>15.105748327600001</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>14.032114270399999</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>14.393154282399999</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>14.0331064231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="7">
+        <v>48</v>
+      </c>
+      <c r="B16" s="8">
+        <v>42866</v>
+      </c>
+      <c r="C16" s="8">
+        <v>42790</v>
+      </c>
+      <c r="D16" s="7">
+        <v>76</v>
+      </c>
+      <c r="E16" s="7">
+        <v>25.8</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1.1220000000000001E-2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>10.92</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="7">
+        <v>16.152078362400001</v>
+      </c>
+      <c r="L16" s="7">
+        <v>13.985163099699999</v>
+      </c>
+      <c r="M16" s="7">
+        <v>13.403573461700001</v>
+      </c>
+      <c r="N16" s="7">
+        <v>12.9650715752</v>
+      </c>
+      <c r="O16" s="7">
+        <v>13.5411574232</v>
+      </c>
+      <c r="P16" s="7">
+        <v>12.786381925800001</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>15.1471796513</v>
+      </c>
+      <c r="R16" s="7">
+        <v>15.441791952799999</v>
+      </c>
+      <c r="S16" s="7">
+        <v>0</v>
+      </c>
+      <c r="T16" s="7">
+        <v>0</v>
+      </c>
+      <c r="U16" s="7">
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
+        <v>0</v>
+      </c>
+      <c r="W16" s="7">
+        <v>0</v>
+      </c>
+      <c r="X16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="7">
+        <v>49</v>
+      </c>
+      <c r="B17" s="8">
+        <v>42867</v>
+      </c>
+      <c r="C17" s="8">
+        <v>42790</v>
+      </c>
+      <c r="D17" s="7">
+        <v>77</v>
+      </c>
+      <c r="E17" s="7">
+        <v>22.1</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7">
+        <v>9.1599999999999997E-3</v>
+      </c>
+      <c r="H17" s="7">
+        <v>11.4</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="7">
+        <v>22.517685391000001</v>
+      </c>
+      <c r="L17" s="7">
+        <v>20.495465329200002</v>
+      </c>
+      <c r="M17" s="7">
+        <v>22.151421815799999</v>
+      </c>
+      <c r="N17" s="7">
+        <v>21.635448482800001</v>
+      </c>
+      <c r="O17" s="7">
+        <v>22.177512995899999</v>
+      </c>
+      <c r="P17" s="7">
+        <v>21.819540316000001</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>21.617691102599998</v>
+      </c>
+      <c r="R17" s="7">
+        <v>21.216941164200001</v>
+      </c>
+      <c r="S17" s="7">
+        <v>20.715574901899998</v>
+      </c>
+      <c r="T17" s="7">
+        <v>20.142709745200001</v>
+      </c>
+      <c r="U17" s="7">
+        <v>19.544702126600001</v>
+      </c>
+      <c r="V17" s="7">
+        <v>19.233830161899999</v>
+      </c>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="7">
+        <v>50</v>
+      </c>
+      <c r="B18" s="8">
+        <v>42867</v>
+      </c>
+      <c r="C18" s="8">
+        <v>42790</v>
+      </c>
+      <c r="D18" s="7">
+        <v>77</v>
+      </c>
+      <c r="E18" s="7">
+        <v>22.1</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2</v>
+      </c>
+      <c r="G18" s="7">
+        <v>9.2300000000000004E-3</v>
+      </c>
+      <c r="H18" s="7">
+        <v>10.57</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="7">
+        <v>16.299089285400001</v>
+      </c>
+      <c r="L18" s="7">
+        <v>16.214997387</v>
+      </c>
+      <c r="M18" s="7">
+        <v>16.284685469100001</v>
+      </c>
+      <c r="N18" s="7">
+        <v>15.776474355</v>
+      </c>
+      <c r="O18" s="7">
+        <v>17.200441883100002</v>
+      </c>
+      <c r="P18" s="7">
+        <v>17.140959124799998</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>18.036137869299999</v>
+      </c>
+      <c r="R18" s="7">
+        <v>18.692477712599999</v>
+      </c>
+      <c r="S18" s="7">
+        <v>17.657341401699998</v>
+      </c>
+      <c r="T18" s="7">
+        <v>16.253958629</v>
+      </c>
+      <c r="U18" s="7">
+        <v>15.460004726499999</v>
+      </c>
+      <c r="V18" s="7">
+        <v>14.8885253753</v>
+      </c>
+      <c r="W18" s="7">
+        <v>13.393847622499999</v>
+      </c>
+      <c r="X18" s="7">
+        <v>12.8973556807</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>13.3033102139</v>
+      </c>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="7">
+        <v>12.520686208600001</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>12.272975793000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="7">
+        <v>34</v>
+      </c>
+      <c r="B19" s="8">
+        <v>42755</v>
+      </c>
+      <c r="C19" s="8">
+        <v>42682</v>
+      </c>
+      <c r="D19" s="7">
+        <v>73</v>
+      </c>
+      <c r="E19" s="7">
+        <v>23.1</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7">
+        <v>8.4700000000000001E-3</v>
+      </c>
+      <c r="H19" s="7">
+        <v>11.9</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7">
+        <v>28.24286017</v>
+      </c>
+      <c r="L19" s="7">
+        <v>28.622121500799999</v>
+      </c>
+      <c r="M19" s="7">
+        <v>26.969092159100001</v>
+      </c>
+      <c r="N19" s="7">
+        <v>24.662844599</v>
+      </c>
+      <c r="O19" s="7">
+        <v>24.197901084600002</v>
+      </c>
+      <c r="P19" s="7">
+        <v>23.7616109306</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>19.3110733018</v>
+      </c>
+      <c r="R19" s="7">
+        <v>22.4912857833</v>
+      </c>
+      <c r="S19" s="7">
+        <v>20.543100660899999</v>
+      </c>
+      <c r="T19" s="7">
+        <v>20.743183965299998</v>
+      </c>
+      <c r="U19" s="7">
+        <v>20.343842349100001</v>
+      </c>
+      <c r="V19" s="7">
+        <v>19.537927695699999</v>
+      </c>
+      <c r="W19" s="7">
+        <v>17.821983058099999</v>
+      </c>
+      <c r="X19" s="7">
+        <v>17.337469493</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>16.845606714900001</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>16.973972765900001</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>17.044572837699999</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>16.659522573899999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="7">
+        <v>35</v>
+      </c>
+      <c r="B20" s="8">
+        <v>42769</v>
+      </c>
+      <c r="C20" s="8">
+        <v>42682</v>
+      </c>
+      <c r="D20" s="7">
+        <v>87</v>
+      </c>
+      <c r="E20" s="7">
+        <v>23.5</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1.0540000000000001E-2</v>
+      </c>
+      <c r="H20" s="7">
+        <v>11.65</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7">
+        <v>27.280096146799998</v>
+      </c>
+      <c r="L20" s="7">
+        <v>27.922438977700001</v>
+      </c>
+      <c r="M20" s="7">
+        <v>28.009883954100001</v>
+      </c>
+      <c r="N20" s="7">
+        <v>27.918440771499998</v>
+      </c>
+      <c r="O20" s="7">
+        <v>26.891354189299999</v>
+      </c>
+      <c r="P20" s="7">
+        <v>27.454123527899998</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>27.5439183415</v>
+      </c>
+      <c r="R20" s="7">
+        <v>27.651668666700001</v>
+      </c>
+      <c r="S20" s="7">
+        <v>27.6066076645</v>
+      </c>
+      <c r="T20" s="7">
+        <v>27.4484162617</v>
+      </c>
+      <c r="U20" s="7">
+        <v>27.8596885599</v>
+      </c>
+      <c r="V20" s="7">
+        <v>28.592445108900002</v>
+      </c>
+      <c r="W20" s="7">
+        <v>28.55010605</v>
+      </c>
+      <c r="X20" s="7">
+        <v>28.07685566</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>28.530575120000002</v>
+      </c>
+      <c r="Z20" s="7">
+        <v>28.1024882</v>
+      </c>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="7">
+        <v>36</v>
+      </c>
+      <c r="B21" s="8">
+        <v>42790</v>
+      </c>
+      <c r="C21" s="8">
+        <v>42705</v>
+      </c>
+      <c r="D21" s="7">
+        <v>85</v>
+      </c>
+      <c r="E21" s="7">
+        <v>25.9</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1.035E-2</v>
+      </c>
+      <c r="H21" s="7">
+        <v>11.41</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="7">
+        <v>36.243493393800001</v>
+      </c>
+      <c r="L21" s="7">
+        <v>36.184969200200001</v>
+      </c>
+      <c r="M21" s="7">
+        <v>36.929969963700003</v>
+      </c>
+      <c r="N21" s="7">
+        <v>35.836394520100001</v>
+      </c>
+      <c r="O21" s="7">
+        <v>35.7207022049</v>
+      </c>
+      <c r="P21" s="7">
+        <v>37.231698420299999</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>37.299472939899999</v>
+      </c>
+      <c r="R21" s="7">
+        <v>36.638226099900002</v>
+      </c>
+      <c r="S21" s="7">
+        <v>35.8447909709</v>
+      </c>
+      <c r="T21" s="7">
+        <v>35.716119105200001</v>
+      </c>
+      <c r="U21" s="7">
+        <v>36.592016853399997</v>
+      </c>
+      <c r="V21" s="7">
+        <v>35.415774018699999</v>
+      </c>
+      <c r="W21" s="7">
+        <v>36.473777641200002</v>
+      </c>
+      <c r="X21" s="7">
+        <v>34.737681872899998</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>34.4384199267</v>
+      </c>
+      <c r="Z21" s="7">
+        <v>35.004886757000001</v>
+      </c>
+      <c r="AA21" s="7">
+        <v>34.649228636899998</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>35.5643279994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="7">
+        <v>37</v>
+      </c>
+      <c r="B22" s="8">
+        <v>42790</v>
+      </c>
+      <c r="C22" s="8">
+        <v>42705</v>
+      </c>
+      <c r="D22" s="7">
+        <v>69</v>
+      </c>
+      <c r="E22" s="7">
+        <v>25.9</v>
+      </c>
+      <c r="F22" s="7">
+        <v>2</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1.1480000000000001E-2</v>
+      </c>
+      <c r="H22" s="7">
+        <v>10.65</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7">
+        <v>18.0934630665</v>
+      </c>
+      <c r="L22" s="7">
+        <v>18.194214821500001</v>
+      </c>
+      <c r="M22" s="7">
+        <v>18.830807940700002</v>
+      </c>
+      <c r="N22" s="7">
+        <v>17.577119537000002</v>
+      </c>
+      <c r="O22" s="7">
+        <v>15.5390273762</v>
+      </c>
+      <c r="P22" s="7">
+        <v>17.6227726503</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>15.557029250399999</v>
+      </c>
+      <c r="R22" s="7">
+        <v>13.096890160399999</v>
+      </c>
+      <c r="S22" s="7">
+        <v>12.6772810794</v>
+      </c>
+      <c r="T22" s="7">
+        <v>13.2014613185</v>
+      </c>
+      <c r="U22" s="7">
+        <v>14.222154810699999</v>
+      </c>
+      <c r="V22" s="7">
+        <v>13.682672565600001</v>
+      </c>
+      <c r="W22" s="7">
+        <v>10.7264456169</v>
+      </c>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7">
+        <v>10.9909140168</v>
+      </c>
+      <c r="AA22" s="7">
+        <v>12.2007781511</v>
+      </c>
+      <c r="AB22" s="7">
+        <v>13.2389944513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="7">
+        <v>38</v>
+      </c>
+      <c r="B23" s="8">
+        <v>42796</v>
+      </c>
+      <c r="C23" s="8">
+        <v>42705</v>
+      </c>
+      <c r="D23" s="7">
+        <v>91</v>
+      </c>
+      <c r="E23" s="7">
+        <v>25.2</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7">
+        <v>9.0799999999999995E-3</v>
+      </c>
+      <c r="H23" s="7">
+        <v>12.53</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="7">
+        <v>26.482726067600002</v>
+      </c>
+      <c r="L23" s="7">
+        <v>25.466141069500001</v>
+      </c>
+      <c r="M23" s="7">
+        <v>26.158692026200001</v>
+      </c>
+      <c r="N23" s="7">
+        <v>25.139373116400002</v>
+      </c>
+      <c r="O23" s="7">
+        <v>24.360371855</v>
+      </c>
+      <c r="P23" s="7">
+        <v>23.3862302621</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>23.232636434</v>
+      </c>
+      <c r="R23" s="7">
+        <v>21.576783549400002</v>
+      </c>
+      <c r="S23" s="7">
+        <v>21.1610767566</v>
+      </c>
+      <c r="T23" s="7">
+        <v>20.068013575599998</v>
+      </c>
+      <c r="U23" s="7">
+        <v>20.197581630799998</v>
+      </c>
+      <c r="V23" s="7">
+        <v>20.138238176200002</v>
+      </c>
+      <c r="W23" s="7">
+        <v>19.805716649200001</v>
+      </c>
+      <c r="X23" s="7">
+        <v>20.276720702399999</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>19.805439336799999</v>
+      </c>
+      <c r="Z23" s="7">
+        <v>20.028995097100001</v>
+      </c>
+      <c r="AA23" s="7">
+        <v>19.961979859100001</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>20.2486298072</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="7">
+        <v>39</v>
+      </c>
+      <c r="B24" s="8">
+        <v>42822</v>
+      </c>
+      <c r="C24" s="8">
+        <v>42705</v>
+      </c>
+      <c r="D24" s="7">
+        <v>117</v>
+      </c>
+      <c r="E24" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="F24" s="7">
+        <v>2</v>
+      </c>
+      <c r="G24" s="7">
+        <v>8.26E-3</v>
+      </c>
+      <c r="H24" s="7">
+        <v>12.49</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7">
+        <v>27.224686099300001</v>
+      </c>
+      <c r="L24" s="7">
+        <v>23.069358177800002</v>
+      </c>
+      <c r="M24" s="7">
+        <v>22.347833854299999</v>
+      </c>
+      <c r="N24" s="7">
+        <v>23.985021755999998</v>
+      </c>
+      <c r="O24" s="7">
+        <v>25.2373370468</v>
+      </c>
+      <c r="P24" s="7">
+        <v>25.454963703699999</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>25.327752153399999</v>
+      </c>
+      <c r="R24" s="7">
+        <v>26.666729177600001</v>
+      </c>
+      <c r="S24" s="7">
+        <v>27.026214523099998</v>
+      </c>
+      <c r="T24" s="7">
+        <v>28.377366728199998</v>
+      </c>
+      <c r="U24" s="7">
+        <v>26.723942371</v>
+      </c>
+      <c r="V24" s="7">
+        <v>26.192534715499999</v>
+      </c>
+      <c r="W24" s="7">
+        <v>26.865645323500001</v>
+      </c>
+      <c r="X24" s="7">
+        <v>24.825845373300002</v>
+      </c>
+      <c r="Y24" s="7">
+        <v>24.035772162099999</v>
+      </c>
+      <c r="Z24" s="7">
+        <v>24.551204707699998</v>
+      </c>
+      <c r="AA24" s="7">
+        <v>24.243287808600002</v>
+      </c>
+      <c r="AB24" s="7">
+        <v>24.685594921100002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="7">
+        <v>40</v>
+      </c>
+      <c r="B25" s="8">
+        <v>42825</v>
+      </c>
+      <c r="C25" s="8">
+        <v>42755</v>
+      </c>
+      <c r="D25" s="7">
+        <v>70</v>
+      </c>
+      <c r="E25" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1.142E-2</v>
+      </c>
+      <c r="H25" s="7">
+        <v>10.83</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7">
+        <v>36.309015177900001</v>
+      </c>
+      <c r="L25" s="7">
+        <v>37.689539430099998</v>
+      </c>
+      <c r="M25" s="7">
+        <v>37.722450714700003</v>
+      </c>
+      <c r="N25" s="7">
+        <v>37.750938251299999</v>
+      </c>
+      <c r="O25" s="7">
+        <v>37.636088170900003</v>
+      </c>
+      <c r="P25" s="7">
+        <v>37.415880036899999</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>0</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0</v>
+      </c>
+      <c r="S25" s="7">
+        <v>0</v>
+      </c>
+      <c r="T25" s="7">
+        <v>0</v>
+      </c>
+      <c r="U25" s="7">
+        <v>0</v>
+      </c>
+      <c r="V25" s="7">
+        <v>0</v>
+      </c>
+      <c r="W25" s="7">
+        <v>0</v>
+      </c>
+      <c r="X25" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="7">
+        <v>41</v>
+      </c>
+      <c r="B26" s="8">
+        <v>42838</v>
+      </c>
+      <c r="C26" s="8">
+        <v>42755</v>
+      </c>
+      <c r="D26" s="7">
+        <v>83</v>
+      </c>
+      <c r="E26" s="7">
+        <v>22.1</v>
+      </c>
+      <c r="F26" s="7">
+        <v>2</v>
+      </c>
+      <c r="G26" s="7">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="H26" s="7">
+        <v>9.48</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="7">
+        <v>8.6596702772</v>
+      </c>
+      <c r="L26" s="7">
+        <v>7.3394495412799996</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8.3507306889299997</v>
+      </c>
+      <c r="N26" s="7">
+        <v>8.22571622209</v>
+      </c>
+      <c r="O26" s="7">
+        <v>7.1968333933100004</v>
+      </c>
+      <c r="P26" s="7">
+        <v>7.9875041916900003</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>8.0434739008400005</v>
+      </c>
+      <c r="R26" s="7">
+        <v>8.9028634709700007</v>
+      </c>
+      <c r="S26" s="7">
+        <v>7.3937153419600001</v>
+      </c>
+      <c r="T26" s="7">
+        <v>7.2332730560599998</v>
+      </c>
+      <c r="U26" s="7">
+        <v>6.8466986327699999</v>
+      </c>
+      <c r="V26" s="7">
+        <v>6.9060773480600002</v>
+      </c>
+      <c r="W26" s="7">
+        <v>6.1804697157000001</v>
+      </c>
+      <c r="X26" s="7">
+        <v>5.6306306306299998</v>
+      </c>
+      <c r="Y26" s="7">
+        <v>5.9453032104699997</v>
+      </c>
+      <c r="Z26" s="7">
+        <v>5.8105752469500001</v>
+      </c>
+      <c r="AA26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="7">
+        <v>5.5478502080499998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="7">
+        <v>42</v>
+      </c>
+      <c r="B27" s="8">
+        <v>42839</v>
+      </c>
+      <c r="C27" s="8">
+        <v>42755</v>
+      </c>
+      <c r="D27" s="7">
+        <v>84</v>
+      </c>
+      <c r="E27" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7">
+        <v>9.8300000000000002E-3</v>
+      </c>
+      <c r="H27" s="7">
+        <v>11.42</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="7">
+        <v>23.351278761300001</v>
+      </c>
+      <c r="L27" s="7">
+        <v>24.751677393200001</v>
+      </c>
+      <c r="M27" s="7">
+        <v>25.352574115700001</v>
+      </c>
+      <c r="N27" s="7">
+        <v>26.412985395100002</v>
+      </c>
+      <c r="O27" s="7">
+        <v>27.387009865500001</v>
+      </c>
+      <c r="P27" s="7">
+        <v>27.419864537799999</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>29.548113120499998</v>
+      </c>
+      <c r="R27" s="7">
+        <v>31.917921205700001</v>
+      </c>
+      <c r="S27" s="7">
+        <v>31.340377393000001</v>
+      </c>
+      <c r="T27" s="7">
+        <v>30.703998313700001</v>
+      </c>
+      <c r="U27" s="7">
+        <v>29.2669833639</v>
+      </c>
+      <c r="V27" s="7">
+        <v>28.915589924500001</v>
+      </c>
+      <c r="W27" s="7">
+        <v>28.4433090695</v>
+      </c>
+      <c r="X27" s="7">
+        <v>27.784686438200001</v>
+      </c>
+      <c r="Y27" s="7">
+        <v>28.2471987789</v>
+      </c>
+      <c r="Z27" s="7">
+        <v>27.874921947000001</v>
+      </c>
+      <c r="AA27" s="7">
+        <v>28.057971607999999</v>
+      </c>
+      <c r="AB27" s="7">
+        <v>27.7733373473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="7">
+        <v>43</v>
+      </c>
+      <c r="B28" s="8">
+        <v>42839</v>
+      </c>
+      <c r="C28" s="8">
+        <v>42755</v>
+      </c>
+      <c r="D28" s="7">
+        <v>84</v>
+      </c>
+      <c r="E28" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="F28" s="7">
+        <v>2</v>
+      </c>
+      <c r="G28" s="7">
+        <v>9.4500000000000001E-3</v>
+      </c>
+      <c r="H28" s="7">
+        <v>12.37</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7">
+        <v>24.565872723799998</v>
+      </c>
+      <c r="L28" s="7">
+        <v>24.4929986406</v>
+      </c>
+      <c r="M28" s="7">
+        <v>24.2969590135</v>
+      </c>
+      <c r="N28" s="7">
+        <v>24.251938106800001</v>
+      </c>
+      <c r="O28" s="7">
+        <v>23.990163418600002</v>
+      </c>
+      <c r="P28" s="7">
+        <v>24.025083651300001</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>23.8968482734</v>
+      </c>
+      <c r="R28" s="7">
+        <v>23.187091902500001</v>
+      </c>
+      <c r="S28" s="7">
+        <v>22.661013374900001</v>
+      </c>
+      <c r="T28" s="7">
+        <v>22.707877076599999</v>
+      </c>
+      <c r="U28" s="7">
+        <v>23.224662531</v>
+      </c>
+      <c r="V28" s="7">
+        <v>23.066853547000001</v>
+      </c>
+      <c r="W28" s="7">
+        <v>22.765769679999998</v>
+      </c>
+      <c r="X28" s="7">
+        <v>22.951968408500001</v>
+      </c>
+      <c r="Y28" s="7">
+        <v>22.763013798599999</v>
+      </c>
+      <c r="Z28" s="7">
+        <v>22.646835421900001</v>
+      </c>
+      <c r="AA28" s="7">
+        <v>22.765539368500001</v>
+      </c>
+      <c r="AB28" s="7">
+        <v>22.732127363299998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="7">
+        <v>44</v>
+      </c>
+      <c r="B29" s="8">
+        <v>42845</v>
+      </c>
+      <c r="C29" s="8">
+        <v>42755</v>
+      </c>
+      <c r="D29" s="7">
+        <v>90</v>
+      </c>
+      <c r="E29" s="7">
+        <v>22.9</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="7">
+        <v>10.75</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="7">
+        <v>29.8437218551</v>
+      </c>
+      <c r="L29" s="7">
+        <v>28.1886621459</v>
+      </c>
+      <c r="M29" s="7">
+        <v>27.880429940700001</v>
+      </c>
+      <c r="N29" s="7">
+        <v>27.686248997500002</v>
+      </c>
+      <c r="O29" s="7">
+        <v>26.526755952399999</v>
+      </c>
+      <c r="P29" s="7">
+        <v>27.162055862399999</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>28.9596453465</v>
+      </c>
+      <c r="R29" s="7">
+        <v>26.800901733300002</v>
+      </c>
+      <c r="S29" s="7">
+        <v>25.631990372899999</v>
+      </c>
+      <c r="T29" s="7">
+        <v>27.325752401100001</v>
+      </c>
+      <c r="U29" s="7">
+        <v>26.960784686099998</v>
+      </c>
+      <c r="V29" s="7">
+        <v>26.9125953295</v>
+      </c>
+      <c r="W29" s="7">
+        <v>25.412910459999999</v>
+      </c>
+      <c r="X29" s="7">
+        <v>24.23791456</v>
+      </c>
+      <c r="Y29" s="7">
+        <v>24.54550858</v>
+      </c>
+      <c r="Z29" s="7">
+        <v>23.756203459999998</v>
+      </c>
+      <c r="AA29" s="7">
+        <v>25.004125980000001</v>
+      </c>
+      <c r="AB29" s="7">
+        <v>23.531273649999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="7">
+        <v>45</v>
+      </c>
+      <c r="B30" s="8">
+        <v>42846</v>
+      </c>
+      <c r="C30" s="8">
+        <v>42755</v>
+      </c>
+      <c r="D30" s="7">
+        <v>91</v>
+      </c>
+      <c r="E30" s="7">
+        <v>28.9</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1.125E-2</v>
+      </c>
+      <c r="H30" s="7">
+        <v>10.59</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="7">
+        <v>24.624916905799999</v>
+      </c>
+      <c r="L30" s="7">
+        <v>21.83338822</v>
+      </c>
+      <c r="M30" s="7">
+        <v>21.699764198499999</v>
+      </c>
+      <c r="N30" s="7">
+        <v>20.662493681499999</v>
+      </c>
+      <c r="O30" s="7">
+        <v>21.752977024700002</v>
+      </c>
+      <c r="P30" s="7">
+        <v>20.858726549</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>22.353039407899999</v>
+      </c>
+      <c r="R30" s="7">
+        <v>22.604047653799999</v>
+      </c>
+      <c r="S30" s="7">
+        <v>23.116872757900001</v>
+      </c>
+      <c r="T30" s="7">
+        <v>24.434161720900001</v>
+      </c>
+      <c r="U30" s="7">
+        <v>10.930790850499999</v>
+      </c>
+      <c r="V30" s="7">
+        <v>16.403728770800001</v>
+      </c>
+      <c r="W30" s="7">
+        <v>0</v>
+      </c>
+      <c r="X30" s="7">
+        <v>14.663184600099999</v>
+      </c>
+      <c r="Y30" s="7">
+        <v>16.375865505299998</v>
+      </c>
+      <c r="Z30" s="7">
+        <v>16.4665505398</v>
+      </c>
+      <c r="AA30" s="7">
+        <v>17.4947934769</v>
+      </c>
+      <c r="AB30" s="7">
+        <v>17.839978018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="7">
+        <v>46</v>
+      </c>
+      <c r="B31" s="8">
+        <v>42852</v>
+      </c>
+      <c r="C31" s="8">
+        <v>42790</v>
+      </c>
+      <c r="D31" s="7">
+        <v>62</v>
+      </c>
+      <c r="E31" s="7">
+        <v>19.7</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7">
+        <v>7.8300000000000002E-3</v>
+      </c>
+      <c r="H31" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="7">
+        <v>45.663930802099998</v>
+      </c>
+      <c r="L31" s="7">
+        <v>44.735770042399999</v>
+      </c>
+      <c r="M31" s="7">
+        <v>44.775740267300002</v>
+      </c>
+      <c r="N31" s="7">
+        <v>44.3351939601</v>
+      </c>
+      <c r="O31" s="7">
+        <v>43.489070352900001</v>
+      </c>
+      <c r="P31" s="7">
+        <v>43.363705136699998</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>44.623885760500002</v>
+      </c>
+      <c r="R31" s="7">
+        <v>42.9138662983</v>
+      </c>
+      <c r="S31" s="7">
+        <v>42.255618032800001</v>
+      </c>
+      <c r="T31" s="7">
+        <v>41.063789109200002</v>
+      </c>
+      <c r="U31" s="7">
+        <v>40.671062001700001</v>
+      </c>
+      <c r="V31" s="7">
+        <v>42.488375708200003</v>
+      </c>
+      <c r="W31" s="7">
+        <v>41.486722730899999</v>
+      </c>
+      <c r="X31" s="7">
+        <v>40.028315770500001</v>
+      </c>
+      <c r="Y31" s="7">
+        <v>42.140574891999997</v>
+      </c>
+      <c r="Z31" s="7">
+        <v>41.226965417400002</v>
+      </c>
+      <c r="AA31" s="7">
+        <v>41.175147782000003</v>
+      </c>
+      <c r="AB31" s="7">
+        <v>41.5130451335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="7">
+        <v>47</v>
+      </c>
+      <c r="B32" s="8">
+        <v>42859</v>
+      </c>
+      <c r="C32" s="8">
+        <v>42790</v>
+      </c>
+      <c r="D32" s="7">
+        <v>69</v>
+      </c>
+      <c r="E32" s="7">
+        <v>25</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1.052E-2</v>
+      </c>
+      <c r="H32" s="7">
+        <v>11.24</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7">
+        <v>28.337936108499999</v>
+      </c>
+      <c r="L32" s="7">
+        <v>24.881935531</v>
+      </c>
+      <c r="M32" s="7">
+        <v>33.141637065200001</v>
+      </c>
+      <c r="N32" s="7">
+        <v>24.569927208999999</v>
+      </c>
+      <c r="O32" s="7">
+        <v>24.584319050200001</v>
+      </c>
+      <c r="P32" s="7">
+        <v>24.501871457899998</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>25.408751565700001</v>
+      </c>
+      <c r="R32" s="7">
+        <v>26.356589300500001</v>
+      </c>
+      <c r="S32" s="7">
+        <v>25.607039104399998</v>
+      </c>
+      <c r="T32" s="7">
+        <v>26.034523933700001</v>
+      </c>
+      <c r="U32" s="7">
+        <v>24.346879004000002</v>
+      </c>
+      <c r="V32" s="7">
+        <v>24.406550145699999</v>
+      </c>
+      <c r="W32" s="7">
+        <v>23.271160085999998</v>
+      </c>
+      <c r="X32" s="7">
+        <v>22.250556876800001</v>
+      </c>
+      <c r="Y32" s="7">
+        <v>21.774634799200001</v>
+      </c>
+      <c r="Z32" s="7">
+        <v>21.909280702299998</v>
+      </c>
+      <c r="AA32" s="7">
+        <v>21.5233706659</v>
+      </c>
+      <c r="AB32" s="7">
+        <v>20.926397362199999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="7">
+        <v>48</v>
+      </c>
+      <c r="B33" s="8">
+        <v>42866</v>
+      </c>
+      <c r="C33" s="8">
+        <v>42790</v>
+      </c>
+      <c r="D33" s="7">
+        <v>76</v>
+      </c>
+      <c r="E33" s="7">
+        <v>25.8</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1.1220000000000001E-2</v>
+      </c>
+      <c r="H33" s="7">
+        <v>10.92</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="7">
+        <v>24.0149906127</v>
+      </c>
+      <c r="L33" s="7">
+        <v>21.2803103197</v>
+      </c>
+      <c r="M33" s="7">
+        <v>20.448031653000001</v>
+      </c>
+      <c r="N33" s="7">
+        <v>19.8551962256</v>
+      </c>
+      <c r="O33" s="7">
+        <v>20.303329856600001</v>
+      </c>
+      <c r="P33" s="7">
+        <v>18.714474360400001</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>0</v>
+      </c>
+      <c r="R33" s="7">
+        <v>0</v>
+      </c>
+      <c r="S33" s="7">
+        <v>0</v>
+      </c>
+      <c r="T33" s="7">
+        <v>0</v>
+      </c>
+      <c r="U33" s="7">
+        <v>0</v>
+      </c>
+      <c r="V33" s="7">
+        <v>0</v>
+      </c>
+      <c r="W33" s="7">
+        <v>0</v>
+      </c>
+      <c r="X33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="7">
+        <v>49</v>
+      </c>
+      <c r="B34" s="8">
+        <v>42867</v>
+      </c>
+      <c r="C34" s="8">
+        <v>42790</v>
+      </c>
+      <c r="D34" s="7">
+        <v>77</v>
+      </c>
+      <c r="E34" s="7">
+        <v>22.1</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7">
+        <v>9.1599999999999997E-3</v>
+      </c>
+      <c r="H34" s="7">
+        <v>11.4</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="7">
+        <v>26.376021342800001</v>
+      </c>
+      <c r="L34" s="7">
+        <v>24.6262993436</v>
+      </c>
+      <c r="M34" s="7">
+        <v>26.481552797900001</v>
+      </c>
+      <c r="N34" s="7">
+        <v>26.392158199000001</v>
+      </c>
+      <c r="O34" s="7">
+        <v>25.831622723900001</v>
+      </c>
+      <c r="P34" s="7">
+        <v>26.178450765299999</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>25.804468867600001</v>
+      </c>
+      <c r="R34" s="7">
+        <v>24.925072222699999</v>
+      </c>
+      <c r="S34" s="7">
+        <v>24.7818740212</v>
+      </c>
+      <c r="T34" s="7">
+        <v>23.553415746900001</v>
+      </c>
+      <c r="U34" s="7">
+        <v>23.225807227600001</v>
+      </c>
+      <c r="V34" s="7">
+        <v>22.5029929737</v>
+      </c>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="7">
+        <v>50</v>
+      </c>
+      <c r="B35" s="8">
+        <v>42867</v>
+      </c>
+      <c r="C35" s="8">
+        <v>42790</v>
+      </c>
+      <c r="D35" s="7">
+        <v>77</v>
+      </c>
+      <c r="E35" s="7">
+        <v>22.1</v>
+      </c>
+      <c r="F35" s="7">
+        <v>2</v>
+      </c>
+      <c r="G35" s="7">
+        <v>9.2300000000000004E-3</v>
+      </c>
+      <c r="H35" s="7">
+        <v>10.57</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="7">
+        <v>19.485845224999998</v>
+      </c>
+      <c r="L35" s="7">
+        <v>19.109929993000002</v>
+      </c>
+      <c r="M35" s="7">
+        <v>18.431610555300001</v>
+      </c>
+      <c r="N35" s="7">
+        <v>18.767824133400001</v>
+      </c>
+      <c r="O35" s="7">
+        <v>20.886917718700001</v>
+      </c>
+      <c r="P35" s="7">
+        <v>20.395711861599999</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>22.070083985</v>
+      </c>
+      <c r="R35" s="7">
+        <v>21.759663548799999</v>
+      </c>
+      <c r="S35" s="7">
+        <v>20.564894064699999</v>
+      </c>
+      <c r="T35" s="7">
+        <v>19.511918421899999</v>
+      </c>
+      <c r="U35" s="7">
+        <v>18.381046123099999</v>
+      </c>
+      <c r="V35" s="7">
+        <v>17.339769090899999</v>
+      </c>
+      <c r="W35" s="7">
+        <v>15.6095031712</v>
+      </c>
+      <c r="X35" s="7">
+        <v>15.4394023029</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>15.508105969300001</v>
+      </c>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7">
+        <v>14.9218712186</v>
+      </c>
+      <c r="AB35" s="7">
+        <v>13.785761712699999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="7">
+        <v>34</v>
+      </c>
+      <c r="B36" s="8">
+        <v>42755</v>
+      </c>
+      <c r="C36" s="8">
+        <v>42682</v>
+      </c>
+      <c r="D36" s="7">
+        <v>73</v>
+      </c>
+      <c r="E36" s="7">
+        <v>23.1</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7">
+        <v>8.4700000000000001E-3</v>
+      </c>
+      <c r="H36" s="7">
+        <v>11.9</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K36" s="7">
+        <v>50.632911679999999</v>
+      </c>
+      <c r="L36" s="7">
+        <v>47.393363950000001</v>
+      </c>
+      <c r="M36" s="7">
+        <v>43.383949280000003</v>
+      </c>
+      <c r="N36" s="7">
+        <v>40.816326140000001</v>
+      </c>
+      <c r="O36" s="7">
+        <v>39.447731019999999</v>
+      </c>
+      <c r="P36" s="7">
+        <v>36.697246550000003</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>41.152263640000001</v>
+      </c>
+      <c r="R36" s="7">
+        <v>34.482757569999997</v>
+      </c>
+      <c r="S36" s="7">
+        <v>32.94892883</v>
+      </c>
+      <c r="T36" s="7">
+        <v>33.613445280000001</v>
+      </c>
+      <c r="U36" s="7">
+        <v>30.816640849999999</v>
+      </c>
+      <c r="V36" s="7">
+        <v>32.051280980000001</v>
+      </c>
+      <c r="W36" s="7">
+        <v>29.629629139999999</v>
+      </c>
+      <c r="X36" s="7">
+        <v>29.585798260000001</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>29.069766999999999</v>
+      </c>
+      <c r="Z36" s="7">
+        <v>28.65329552</v>
+      </c>
+      <c r="AA36" s="7">
+        <v>26.143791199999999</v>
+      </c>
+      <c r="AB36" s="7">
+        <v>26.809652329999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="8">
+        <v>42769</v>
+      </c>
+      <c r="C37" s="8">
+        <v>42682</v>
+      </c>
+      <c r="D37" s="7">
+        <v>87</v>
+      </c>
+      <c r="E37" s="7">
+        <v>23.5</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1</v>
+      </c>
+      <c r="G37" s="7">
+        <v>1.0540000000000001E-2</v>
+      </c>
+      <c r="H37" s="7">
+        <v>11.65</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" s="7">
+        <v>41.666667940000004</v>
+      </c>
+      <c r="L37" s="7">
+        <v>41.84100342</v>
+      </c>
+      <c r="M37" s="7">
+        <v>39.292732239999999</v>
+      </c>
+      <c r="N37" s="7">
+        <v>40.241447450000003</v>
+      </c>
+      <c r="O37" s="7">
+        <v>40.241447450000003</v>
+      </c>
+      <c r="P37" s="7">
+        <v>39.0625</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>40.160640720000004</v>
+      </c>
+      <c r="R37" s="7">
+        <v>40.322582240000003</v>
+      </c>
+      <c r="S37" s="7">
+        <v>38.75968933</v>
+      </c>
+      <c r="T37" s="7">
+        <v>39.525691989999999</v>
+      </c>
+      <c r="U37" s="7">
+        <v>40</v>
+      </c>
+      <c r="V37" s="7">
+        <v>41.237113950000001</v>
+      </c>
+      <c r="W37" s="7">
+        <v>40.404041290000002</v>
+      </c>
+      <c r="X37" s="7">
+        <v>39.37007904</v>
+      </c>
+      <c r="Y37" s="7">
+        <v>40.567951200000003</v>
+      </c>
+      <c r="Z37" s="7">
+        <v>39.37007904</v>
+      </c>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="7">
+        <v>36</v>
+      </c>
+      <c r="B38" s="8">
+        <v>42790</v>
+      </c>
+      <c r="C38" s="8">
+        <v>42705</v>
+      </c>
+      <c r="D38" s="7">
+        <v>85</v>
+      </c>
+      <c r="E38" s="7">
+        <v>25.9</v>
+      </c>
+      <c r="F38" s="7">
+        <v>1</v>
+      </c>
+      <c r="G38" s="7">
+        <v>1.035E-2</v>
+      </c>
+      <c r="H38" s="7">
+        <v>11.41</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" s="7">
+        <v>55.401660919999998</v>
+      </c>
+      <c r="L38" s="7">
+        <v>56.022407530000002</v>
+      </c>
+      <c r="M38" s="7">
+        <v>55.865921020000002</v>
+      </c>
+      <c r="N38" s="7">
+        <v>55.096420289999998</v>
+      </c>
+      <c r="O38" s="7">
+        <v>53.333332059999996</v>
+      </c>
+      <c r="P38" s="7">
+        <v>57.471263890000003</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>59.880241390000002</v>
+      </c>
+      <c r="R38" s="7">
+        <v>58.823528289999999</v>
+      </c>
+      <c r="S38" s="7">
+        <v>58.823528289999999</v>
+      </c>
+      <c r="T38" s="7">
+        <v>56.818180079999998</v>
+      </c>
+      <c r="U38" s="7">
+        <v>55.401660919999998</v>
+      </c>
+      <c r="V38" s="7">
+        <v>56.022407530000002</v>
+      </c>
+      <c r="W38" s="7">
+        <v>54.794521330000002</v>
+      </c>
+      <c r="X38" s="7">
+        <v>51.413883210000002</v>
+      </c>
+      <c r="Y38" s="7">
+        <v>55.248619079999997</v>
+      </c>
+      <c r="Z38" s="7">
+        <v>53.333332059999996</v>
+      </c>
+      <c r="AA38" s="7">
+        <v>54.054054260000001</v>
+      </c>
+      <c r="AB38" s="7">
+        <v>51.282051090000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="7">
+        <v>37</v>
+      </c>
+      <c r="B39" s="8">
+        <v>42790</v>
+      </c>
+      <c r="C39" s="8">
+        <v>42705</v>
+      </c>
+      <c r="D39" s="7">
+        <v>69</v>
+      </c>
+      <c r="E39" s="7">
+        <v>25.9</v>
+      </c>
+      <c r="F39" s="7">
+        <v>2</v>
+      </c>
+      <c r="G39" s="7">
+        <v>1.1480000000000001E-2</v>
+      </c>
+      <c r="H39" s="7">
+        <v>10.65</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" s="7">
+        <v>28.129394529999999</v>
+      </c>
+      <c r="L39" s="7">
+        <v>27.972028730000002</v>
+      </c>
+      <c r="M39" s="7">
+        <v>27.285129550000001</v>
+      </c>
+      <c r="N39" s="7">
+        <v>26.075618739999999</v>
+      </c>
+      <c r="O39" s="7">
+        <v>26.17801094</v>
+      </c>
+      <c r="P39" s="7">
+        <v>26.212320330000001</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>24.360536580000002</v>
+      </c>
+      <c r="R39" s="7">
+        <v>22.34636879</v>
+      </c>
+      <c r="S39" s="7">
+        <v>20.44989777</v>
+      </c>
+      <c r="T39" s="7">
+        <v>21.253984450000001</v>
+      </c>
+      <c r="U39" s="7">
+        <v>21.074815749999999</v>
+      </c>
+      <c r="V39" s="7">
+        <v>21.186441420000001</v>
+      </c>
+      <c r="W39" s="7">
+        <v>19.323671340000001</v>
+      </c>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7">
+        <v>19.512195590000001</v>
+      </c>
+      <c r="AA39" s="7">
+        <v>18.957345960000001</v>
+      </c>
+      <c r="AB39" s="7">
+        <v>20.1409874</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="7">
+        <v>38</v>
+      </c>
+      <c r="B40" s="8">
+        <v>42796</v>
+      </c>
+      <c r="C40" s="8">
+        <v>42705</v>
+      </c>
+      <c r="D40" s="7">
+        <v>91</v>
+      </c>
+      <c r="E40" s="7">
+        <v>25.2</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7">
+        <v>9.0799999999999995E-3</v>
+      </c>
+      <c r="H40" s="7">
+        <v>12.53</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40" s="7">
+        <v>42.735042569999997</v>
+      </c>
+      <c r="L40" s="7">
+        <v>44.052864069999998</v>
+      </c>
+      <c r="M40" s="7">
+        <v>44.24778748</v>
+      </c>
+      <c r="N40" s="7">
+        <v>42.105262760000002</v>
+      </c>
+      <c r="O40" s="7">
+        <v>40.160640720000004</v>
+      </c>
+      <c r="P40" s="7">
+        <v>40.241447450000003</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>39.761432650000003</v>
+      </c>
+      <c r="R40" s="7">
+        <v>38.240917209999999</v>
+      </c>
+      <c r="S40" s="7">
+        <v>36.429870610000002</v>
+      </c>
+      <c r="T40" s="7">
+        <v>35.398231510000002</v>
+      </c>
+      <c r="U40" s="7">
+        <v>35.523979189999999</v>
+      </c>
+      <c r="V40" s="7">
+        <v>35.460994720000002</v>
+      </c>
+      <c r="W40" s="7">
+        <v>32.467533109999998</v>
+      </c>
+      <c r="X40" s="7">
+        <v>33.277870180000001</v>
+      </c>
+      <c r="Y40" s="7">
+        <v>33.613445280000001</v>
+      </c>
+      <c r="Z40" s="7">
+        <v>33.388980869999997</v>
+      </c>
+      <c r="AA40" s="7">
+        <v>36.563072200000001</v>
+      </c>
+      <c r="AB40" s="7">
+        <v>35.087718959999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="8">
+        <v>42822</v>
+      </c>
+      <c r="C41" s="8">
+        <v>42705</v>
+      </c>
+      <c r="D41" s="7">
+        <v>117</v>
+      </c>
+      <c r="E41" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="F41" s="7">
+        <v>2</v>
+      </c>
+      <c r="G41" s="7">
+        <v>8.26E-3</v>
+      </c>
+      <c r="H41" s="7">
+        <v>12.49</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" s="7">
+        <v>63.09148407</v>
+      </c>
+      <c r="L41" s="7">
+        <v>61.72839355</v>
+      </c>
+      <c r="M41" s="7">
+        <v>52.219322200000001</v>
+      </c>
+      <c r="N41" s="7">
+        <v>54.644809719999998</v>
+      </c>
+      <c r="O41" s="7">
+        <v>51.282051090000003</v>
+      </c>
+      <c r="P41" s="7">
+        <v>59.523811340000002</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>65.146583559999996</v>
+      </c>
+      <c r="R41" s="7">
+        <v>68.259384159999996</v>
+      </c>
+      <c r="S41" s="7">
+        <v>64.724922179999993</v>
+      </c>
+      <c r="T41" s="7">
+        <v>65.573768619999996</v>
+      </c>
+      <c r="U41" s="7">
+        <v>62.5</v>
+      </c>
+      <c r="V41" s="7">
+        <v>64.308685299999993</v>
+      </c>
+      <c r="W41" s="7">
+        <v>59.701492309999999</v>
+      </c>
+      <c r="X41" s="7">
+        <v>61.349693299999998</v>
+      </c>
+      <c r="Y41" s="7">
+        <v>69.686408999999998</v>
+      </c>
+      <c r="Z41" s="7">
+        <v>69.204154970000005</v>
+      </c>
+      <c r="AA41" s="7">
+        <v>55.710308070000004</v>
+      </c>
+      <c r="AB41" s="7">
+        <v>56.980056759999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="7">
+        <v>40</v>
+      </c>
+      <c r="B42" s="8">
+        <v>42825</v>
+      </c>
+      <c r="C42" s="8">
+        <v>42755</v>
+      </c>
+      <c r="D42" s="7">
+        <v>70</v>
+      </c>
+      <c r="E42" s="7">
+        <v>23.8</v>
+      </c>
+      <c r="F42" s="7">
+        <v>1</v>
+      </c>
+      <c r="G42" s="7">
+        <v>1.142E-2</v>
+      </c>
+      <c r="H42" s="7">
+        <v>10.83</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" s="7">
+        <v>53.333332059999996</v>
+      </c>
+      <c r="L42" s="7">
+        <v>54.945053100000003</v>
+      </c>
+      <c r="M42" s="7">
+        <v>54.794521330000002</v>
+      </c>
+      <c r="N42" s="7">
+        <v>53.763439179999999</v>
+      </c>
+      <c r="O42" s="7">
+        <v>53.619304659999997</v>
+      </c>
+      <c r="P42" s="7">
+        <v>54.347827909999999</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>0</v>
+      </c>
+      <c r="R42" s="7">
+        <v>0</v>
+      </c>
+      <c r="S42" s="7">
+        <v>0</v>
+      </c>
+      <c r="T42" s="7">
+        <v>0</v>
+      </c>
+      <c r="U42" s="7">
+        <v>0</v>
+      </c>
+      <c r="V42" s="7">
+        <v>0</v>
+      </c>
+      <c r="W42" s="7">
+        <v>0</v>
+      </c>
+      <c r="X42" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="7">
+        <v>41</v>
+      </c>
+      <c r="B43" s="8">
+        <v>42838</v>
+      </c>
+      <c r="C43" s="8">
+        <v>42755</v>
+      </c>
+      <c r="D43" s="7">
+        <v>83</v>
+      </c>
+      <c r="E43" s="7">
+        <v>22.1</v>
+      </c>
+      <c r="F43" s="7">
+        <v>2</v>
+      </c>
+      <c r="G43" s="7">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="H43" s="7">
+        <v>9.48</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43" s="7">
+        <v>10.167768479999999</v>
+      </c>
+      <c r="L43" s="7">
+        <v>9.3720712660000007</v>
+      </c>
+      <c r="M43" s="7">
+        <v>9.6200094220000008</v>
+      </c>
+      <c r="N43" s="7">
+        <v>9.1449470519999991</v>
+      </c>
+      <c r="O43" s="7">
+        <v>7.9082641599999999</v>
+      </c>
+      <c r="P43" s="7">
+        <v>8.0482892990000003</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>10.46025085</v>
+      </c>
+      <c r="R43" s="7">
+        <v>9.1533184050000003</v>
+      </c>
+      <c r="S43" s="7">
+        <v>10.1781168</v>
+      </c>
+      <c r="T43" s="7">
+        <v>8.9245872500000001</v>
+      </c>
+      <c r="U43" s="7">
+        <v>8.1933631899999995</v>
+      </c>
+      <c r="V43" s="7">
+        <v>7.9968013759999996</v>
+      </c>
+      <c r="W43" s="7">
+        <v>8.1366968150000005</v>
+      </c>
+      <c r="X43" s="7">
+        <v>7.1454091069999999</v>
+      </c>
+      <c r="Y43" s="7">
+        <v>6.9832401280000003</v>
+      </c>
+      <c r="Z43" s="7">
+        <v>8.257637978</v>
+      </c>
+      <c r="AA43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="7">
+        <v>5.1493306160000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="7">
+        <v>42</v>
+      </c>
+      <c r="B44" s="8">
+        <v>42839</v>
+      </c>
+      <c r="C44" s="8">
+        <v>42755</v>
+      </c>
+      <c r="D44" s="7">
+        <v>84</v>
+      </c>
+      <c r="E44" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="F44" s="7">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7">
+        <v>9.8300000000000002E-3</v>
+      </c>
+      <c r="H44" s="7">
+        <v>11.42</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K44" s="7">
+        <v>34.72222137</v>
+      </c>
+      <c r="L44" s="7">
+        <v>40.983608250000003</v>
+      </c>
+      <c r="M44" s="7">
+        <v>41.753654480000002</v>
+      </c>
+      <c r="N44" s="7">
+        <v>43.478260040000002</v>
+      </c>
+      <c r="O44" s="7">
+        <v>40.567951200000003</v>
+      </c>
+      <c r="P44" s="7">
+        <v>43.478260040000002</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>48.780487059999999</v>
+      </c>
+      <c r="R44" s="7">
+        <v>49.751243590000001</v>
+      </c>
+      <c r="S44" s="7">
+        <v>47.393363950000001</v>
+      </c>
+      <c r="T44" s="7">
+        <v>47.058822630000002</v>
+      </c>
+      <c r="U44" s="7">
+        <v>44.24778748</v>
+      </c>
+      <c r="V44" s="7">
+        <v>43.763675689999999</v>
+      </c>
+      <c r="W44" s="7">
+        <v>43.668121339999999</v>
+      </c>
+      <c r="X44" s="7">
+        <v>43.859649660000002</v>
+      </c>
+      <c r="Y44" s="7">
+        <v>44.150112149999998</v>
+      </c>
+      <c r="Z44" s="7">
+        <v>41.580039980000002</v>
+      </c>
+      <c r="AA44" s="7">
+        <v>42.016807559999997</v>
+      </c>
+      <c r="AB44" s="7">
+        <v>42.64392471</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="7">
+        <v>43</v>
+      </c>
+      <c r="B45" s="8">
+        <v>42839</v>
+      </c>
+      <c r="C45" s="8">
+        <v>42755</v>
+      </c>
+      <c r="D45" s="7">
+        <v>84</v>
+      </c>
+      <c r="E45" s="7">
+        <v>24.7</v>
+      </c>
+      <c r="F45" s="7">
+        <v>2</v>
+      </c>
+      <c r="G45" s="7">
+        <v>9.4500000000000001E-3</v>
+      </c>
+      <c r="H45" s="7">
+        <v>12.37</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K45" s="7">
+        <v>37.383178710000003</v>
+      </c>
+      <c r="L45" s="7">
+        <v>38.986354830000003</v>
+      </c>
+      <c r="M45" s="7">
+        <v>36.10108185</v>
+      </c>
+      <c r="N45" s="7">
+        <v>35.460994720000002</v>
+      </c>
+      <c r="O45" s="7">
+        <v>35.58718872</v>
+      </c>
+      <c r="P45" s="7">
+        <v>35.58718872</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>35.149383540000002</v>
+      </c>
+      <c r="R45" s="7">
+        <v>35.149383540000002</v>
+      </c>
+      <c r="S45" s="7">
+        <v>32.573291779999998</v>
+      </c>
+      <c r="T45" s="7">
+        <v>34.542312619999997</v>
+      </c>
+      <c r="U45" s="7">
+        <v>33.388980869999997</v>
+      </c>
+      <c r="V45" s="7">
+        <v>33.898303990000002</v>
+      </c>
+      <c r="W45" s="7">
+        <v>35.149383540000002</v>
+      </c>
+      <c r="X45" s="7">
+        <v>35.398231510000002</v>
+      </c>
+      <c r="Y45" s="7">
+        <v>33.898303990000002</v>
+      </c>
+      <c r="Z45" s="7">
+        <v>33.057849879999999</v>
+      </c>
+      <c r="AA45" s="7">
+        <v>32.573291779999998</v>
+      </c>
+      <c r="AB45" s="7">
+        <v>32.467533109999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="7">
+        <v>44</v>
+      </c>
+      <c r="B46" s="8">
+        <v>42845</v>
+      </c>
+      <c r="C46" s="8">
+        <v>42755</v>
+      </c>
+      <c r="D46" s="7">
+        <v>90</v>
+      </c>
+      <c r="E46" s="7">
+        <v>22.9</v>
+      </c>
+      <c r="F46" s="7">
+        <v>1</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" s="7">
+        <v>10.75</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K46" s="7">
+        <v>65.573768619999996</v>
+      </c>
+      <c r="L46" s="7">
+        <v>68.965515139999994</v>
+      </c>
+      <c r="M46" s="7">
+        <v>68.965515139999994</v>
+      </c>
+      <c r="N46" s="7">
+        <v>51.813472750000003</v>
+      </c>
+      <c r="O46" s="7">
+        <v>55.865921020000002</v>
+      </c>
+      <c r="P46" s="7">
+        <v>58.651027679999999</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>62.893081670000001</v>
+      </c>
+      <c r="R46" s="7">
+        <v>58.309036249999998</v>
+      </c>
+      <c r="S46" s="7">
+        <v>57.471263890000003</v>
+      </c>
+      <c r="T46" s="7">
+        <v>59.523811340000002</v>
+      </c>
+      <c r="U46" s="7">
+        <v>57.142856600000002</v>
+      </c>
+      <c r="V46" s="7">
+        <v>57.30659103</v>
+      </c>
+      <c r="W46" s="7">
+        <v>52.083332059999996</v>
+      </c>
+      <c r="X46" s="7">
+        <v>48.661800380000003</v>
+      </c>
+      <c r="Y46" s="7">
+        <v>50.251255039999997</v>
+      </c>
+      <c r="Z46" s="7">
+        <v>50.125312809999997</v>
+      </c>
+      <c r="AA46" s="7">
+        <v>53.47593689</v>
+      </c>
+      <c r="AB46" s="7">
+        <v>48.780487059999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="7">
+        <v>45</v>
+      </c>
+      <c r="B47" s="8">
+        <v>42846</v>
+      </c>
+      <c r="C47" s="8">
+        <v>42755</v>
+      </c>
+      <c r="D47" s="7">
+        <v>91</v>
+      </c>
+      <c r="E47" s="7">
+        <v>28.9</v>
+      </c>
+      <c r="F47" s="7">
+        <v>1</v>
+      </c>
+      <c r="G47" s="7">
+        <v>1.125E-2</v>
+      </c>
+      <c r="H47" s="7">
+        <v>10.59</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K47" s="7">
+        <v>93.896713259999999</v>
+      </c>
+      <c r="L47" s="7">
+        <v>90.497734070000007</v>
+      </c>
+      <c r="M47" s="7">
+        <v>88.105728150000004</v>
+      </c>
+      <c r="N47" s="7">
+        <v>88.495574950000005</v>
+      </c>
+      <c r="O47" s="7">
+        <v>94.339622500000004</v>
+      </c>
+      <c r="P47" s="7">
+        <v>93.45794678</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>90.090087890000007</v>
+      </c>
+      <c r="R47" s="7">
+        <v>89.686096190000001</v>
+      </c>
+      <c r="S47" s="7">
+        <v>104.16666410000001</v>
+      </c>
+      <c r="T47" s="7">
+        <v>118.34319309999999</v>
+      </c>
+      <c r="U47" s="7">
+        <v>93.023254390000005</v>
+      </c>
+      <c r="V47" s="7">
+        <v>139.86013790000001</v>
+      </c>
+      <c r="W47" s="7">
+        <v>30.165912630000001</v>
+      </c>
+      <c r="X47" s="7">
+        <v>35.906642910000002</v>
+      </c>
+      <c r="Y47" s="7">
+        <v>61.919506069999997</v>
+      </c>
+      <c r="Z47" s="7">
+        <v>60.240962979999999</v>
+      </c>
+      <c r="AA47" s="7">
+        <v>58.823528289999999</v>
+      </c>
+      <c r="AB47" s="7">
+        <v>68.027214049999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="7">
+        <v>46</v>
+      </c>
+      <c r="B48" s="8">
+        <v>42852</v>
+      </c>
+      <c r="C48" s="8">
+        <v>42790</v>
+      </c>
+      <c r="D48" s="7">
+        <v>62</v>
+      </c>
+      <c r="E48" s="7">
+        <v>19.7</v>
+      </c>
+      <c r="F48" s="7">
+        <v>1</v>
+      </c>
+      <c r="G48" s="7">
+        <v>7.8300000000000002E-3</v>
+      </c>
+      <c r="H48" s="7">
+        <v>10.4</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48" s="7">
+        <v>69.930068969999994</v>
+      </c>
+      <c r="L48" s="7">
+        <v>69.204154970000005</v>
+      </c>
+      <c r="M48" s="7">
+        <v>71.174377440000001</v>
+      </c>
+      <c r="N48" s="7">
+        <v>70.671379090000002</v>
+      </c>
+      <c r="O48" s="7">
+        <v>69.686408999999998</v>
+      </c>
+      <c r="P48" s="7">
+        <v>69.930068969999994</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>71.942443850000004</v>
+      </c>
+      <c r="R48" s="7">
+        <v>67.796607969999997</v>
+      </c>
+      <c r="S48" s="7">
+        <v>67.796607969999997</v>
+      </c>
+      <c r="T48" s="7">
+        <v>64.308685299999993</v>
+      </c>
+      <c r="U48" s="7">
+        <v>64.935066219999996</v>
+      </c>
+      <c r="V48" s="7">
+        <v>66.22516632</v>
+      </c>
+      <c r="W48" s="7">
+        <v>72.992698669999996</v>
+      </c>
+      <c r="X48" s="7">
+        <v>64.308685299999993</v>
+      </c>
+      <c r="Y48" s="7">
+        <v>68.4931488</v>
+      </c>
+      <c r="Z48" s="7">
+        <v>65.573768619999996</v>
+      </c>
+      <c r="AA48" s="7">
+        <v>67.567565920000007</v>
+      </c>
+      <c r="AB48" s="7">
+        <v>67.567565920000007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="7">
+        <v>47</v>
+      </c>
+      <c r="B49" s="8">
+        <v>42859</v>
+      </c>
+      <c r="C49" s="8">
+        <v>42790</v>
+      </c>
+      <c r="D49" s="7">
+        <v>69</v>
+      </c>
+      <c r="E49" s="7">
+        <v>25</v>
+      </c>
+      <c r="F49" s="7">
+        <v>1</v>
+      </c>
+      <c r="G49" s="7">
+        <v>1.052E-2</v>
+      </c>
+      <c r="H49" s="7">
+        <v>11.24</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="7">
+        <v>59.171596530000002</v>
+      </c>
+      <c r="L49" s="7">
+        <v>51.679588320000001</v>
+      </c>
+      <c r="M49" s="7">
+        <v>60.42296219</v>
+      </c>
+      <c r="N49" s="7">
+        <v>53.47593689</v>
+      </c>
+      <c r="O49" s="7">
+        <v>48.899757389999998</v>
+      </c>
+      <c r="P49" s="7">
+        <v>53.333332059999996</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>57.471263890000003</v>
+      </c>
+      <c r="R49" s="7">
+        <v>53.763439179999999</v>
+      </c>
+      <c r="S49" s="7">
+        <v>54.644809719999998</v>
+      </c>
+      <c r="T49" s="7">
+        <v>53.763439179999999</v>
+      </c>
+      <c r="U49" s="7">
+        <v>55.710308070000004</v>
+      </c>
+      <c r="V49" s="7">
+        <v>50.890586849999998</v>
+      </c>
+      <c r="W49" s="7">
+        <v>51.679588320000001</v>
+      </c>
+      <c r="X49" s="7">
+        <v>49.875312809999997</v>
+      </c>
+      <c r="Y49" s="7">
+        <v>47.505939480000002</v>
+      </c>
+      <c r="Z49" s="7">
+        <v>47.961631769999997</v>
+      </c>
+      <c r="AA49" s="7">
+        <v>47.28132248</v>
+      </c>
+      <c r="AB49" s="7">
+        <v>45.871559140000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="7">
+        <v>48</v>
+      </c>
+      <c r="B50" s="8">
+        <v>42866</v>
+      </c>
+      <c r="C50" s="8">
+        <v>42790</v>
+      </c>
+      <c r="D50" s="7">
+        <v>76</v>
+      </c>
+      <c r="E50" s="7">
+        <v>25.8</v>
+      </c>
+      <c r="F50" s="7">
+        <v>1</v>
+      </c>
+      <c r="G50" s="7">
+        <v>1.1220000000000001E-2</v>
+      </c>
+      <c r="H50" s="7">
+        <v>10.92</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K50" s="7">
+        <v>92.165901180000006</v>
+      </c>
+      <c r="L50" s="7">
+        <v>91.324203490000002</v>
+      </c>
+      <c r="M50" s="7">
+        <v>92.592590329999993</v>
+      </c>
+      <c r="N50" s="7">
+        <v>91.324203490000002</v>
+      </c>
+      <c r="O50" s="7">
+        <v>88.495574950000005</v>
+      </c>
+      <c r="P50" s="7">
+        <v>60.42296219</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>49.261085510000001</v>
+      </c>
+      <c r="R50" s="7">
+        <v>94.339622500000004</v>
+      </c>
+      <c r="S50" s="7">
+        <v>0</v>
+      </c>
+      <c r="T50" s="7">
+        <v>0</v>
+      </c>
+      <c r="U50" s="7">
+        <v>0</v>
+      </c>
+      <c r="V50" s="7">
+        <v>0</v>
+      </c>
+      <c r="W50" s="7">
+        <v>0</v>
+      </c>
+      <c r="X50" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="7">
+        <v>49</v>
+      </c>
+      <c r="B51" s="8">
+        <v>42867</v>
+      </c>
+      <c r="C51" s="8">
+        <v>42790</v>
+      </c>
+      <c r="D51" s="7">
+        <v>77</v>
+      </c>
+      <c r="E51" s="7">
+        <v>22.1</v>
+      </c>
+      <c r="F51" s="7">
+        <v>1</v>
+      </c>
+      <c r="G51" s="7">
+        <v>9.1599999999999997E-3</v>
+      </c>
+      <c r="H51" s="7">
+        <v>11.4</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" s="7">
+        <v>44.345897669999999</v>
+      </c>
+      <c r="L51" s="7">
+        <v>40.983608250000003</v>
+      </c>
+      <c r="M51" s="7">
+        <v>41.753654480000002</v>
+      </c>
+      <c r="N51" s="7">
+        <v>41.84100342</v>
+      </c>
+      <c r="O51" s="7">
+        <v>40.241447450000003</v>
+      </c>
+      <c r="P51" s="7">
+        <v>42.462844850000003</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>41.067760470000003</v>
+      </c>
+      <c r="R51" s="7">
+        <v>41.152263640000001</v>
+      </c>
+      <c r="S51" s="7">
+        <v>39.138942720000003</v>
+      </c>
+      <c r="T51" s="7">
+        <v>38.387714389999999</v>
+      </c>
+      <c r="U51" s="7">
+        <v>38.986354830000003</v>
+      </c>
+      <c r="V51" s="7">
+        <v>34.782608029999999</v>
+      </c>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="9"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="7">
+        <v>50</v>
+      </c>
+      <c r="B52" s="8">
+        <v>42867</v>
+      </c>
+      <c r="C52" s="8">
+        <v>42790</v>
+      </c>
+      <c r="D52" s="7">
+        <v>77</v>
+      </c>
+      <c r="E52" s="7">
+        <v>22.1</v>
+      </c>
+      <c r="F52" s="7">
+        <v>2</v>
+      </c>
+      <c r="G52" s="7">
+        <v>9.2300000000000004E-3</v>
+      </c>
+      <c r="H52" s="7">
+        <v>10.57</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" s="7">
+        <v>27.894002910000001</v>
+      </c>
+      <c r="L52" s="7">
+        <v>28.490028379999998</v>
+      </c>
+      <c r="M52" s="7">
+        <v>28.449502939999999</v>
+      </c>
+      <c r="N52" s="7">
+        <v>28.61230278</v>
+      </c>
+      <c r="O52" s="7">
+        <v>27.894002910000001</v>
+      </c>
+      <c r="P52" s="7">
+        <v>31.397174840000002</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>36.630035399999997</v>
+      </c>
+      <c r="R52" s="7">
+        <v>36.832412720000001</v>
+      </c>
+      <c r="S52" s="7">
+        <v>31.397174840000002</v>
+      </c>
+      <c r="T52" s="7">
+        <v>29.282577509999999</v>
+      </c>
+      <c r="U52" s="7">
+        <v>28.449502939999999</v>
+      </c>
+      <c r="V52" s="7">
+        <v>27.66251755</v>
+      </c>
+      <c r="W52" s="7">
+        <v>27.02702713</v>
+      </c>
+      <c r="X52" s="7">
+        <v>24.81389618</v>
+      </c>
+      <c r="Y52" s="7">
+        <v>24.570024490000002</v>
+      </c>
+      <c r="Z52" s="7">
+        <v>53.763439179999999</v>
+      </c>
+      <c r="AA52" s="7">
+        <v>21.83406067</v>
+      </c>
+      <c r="AB52" s="7">
+        <v>23.068050379999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73922CA1-B06F-4DBB-B17D-C368927A988C}">
+  <dimension ref="A1:AB19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="8.83984375" style="6"/>
+    <col min="2" max="3" width="9.15625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83984375" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="6">
+        <v>51</v>
+      </c>
+      <c r="B2" s="10">
+        <v>42916</v>
+      </c>
+      <c r="C2" s="10">
+        <v>42837</v>
+      </c>
+      <c r="D2" s="6">
+        <v>79</v>
+      </c>
+      <c r="E2" s="6">
+        <v>24.1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1.0710000000000001E-2</v>
+      </c>
+      <c r="H2" s="6">
+        <v>10.15</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="6">
+        <v>11.304195380299999</v>
+      </c>
+      <c r="L2" s="6">
+        <v>12.353558657000001</v>
+      </c>
+      <c r="M2" s="6">
+        <v>11.0967054258</v>
+      </c>
+      <c r="N2" s="6">
+        <v>11.507284197000001</v>
+      </c>
+      <c r="O2" s="6">
+        <v>10.193340038700001</v>
+      </c>
+      <c r="P2" s="6">
+        <v>12.411979961</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>10.9850379633</v>
+      </c>
+      <c r="R2" s="6">
+        <v>9.6383829348700001</v>
+      </c>
+      <c r="S2" s="6">
+        <v>8.3238840260500009</v>
+      </c>
+      <c r="T2" s="6">
+        <v>9.3489570431800004</v>
+      </c>
+      <c r="U2" s="6">
+        <v>3.77732343507</v>
+      </c>
+      <c r="V2" s="6">
+        <v>9.2864661274600007</v>
+      </c>
+      <c r="W2" s="6">
+        <v>10.414084239999999</v>
+      </c>
+      <c r="X2" s="6">
+        <v>10.11057053</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>6.2090875309999998</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>5.6224126820000002</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>10.078935810000001</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="6">
+        <v>52</v>
+      </c>
+      <c r="B3" s="10">
+        <v>42916</v>
+      </c>
+      <c r="C3" s="10">
+        <v>42837</v>
+      </c>
+      <c r="D3" s="6">
+        <v>79</v>
+      </c>
+      <c r="E3" s="6">
+        <v>24.1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1.0670000000000001E-2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>11.15</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6">
+        <v>16.943701132299999</v>
+      </c>
+      <c r="L3" s="6">
+        <v>15.1132043255</v>
+      </c>
+      <c r="M3" s="6">
+        <v>16.281409227099999</v>
+      </c>
+      <c r="N3" s="6">
+        <v>16.729161810499999</v>
+      </c>
+      <c r="O3" s="6">
+        <v>18.8724955325</v>
+      </c>
+      <c r="P3" s="6">
+        <v>15.8144642025</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>18.022801484999999</v>
+      </c>
+      <c r="R3" s="6">
+        <v>18.268341707299999</v>
+      </c>
+      <c r="S3" s="6">
+        <v>18.388126820099998</v>
+      </c>
+      <c r="T3" s="6">
+        <v>19.086600151900001</v>
+      </c>
+      <c r="U3" s="6">
+        <v>18.150014010100001</v>
+      </c>
+      <c r="V3" s="6">
+        <v>16.675415554299999</v>
+      </c>
+      <c r="W3" s="6">
+        <v>16.983283781200001</v>
+      </c>
+      <c r="X3" s="6">
+        <v>17.6290391876</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>17.292372053299999</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>17.028929132799998</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>17.689966419200001</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>16.590959878300001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6">
+        <v>53</v>
+      </c>
+      <c r="B4" s="10">
+        <v>42921</v>
+      </c>
+      <c r="C4" s="10">
+        <v>42837</v>
+      </c>
+      <c r="D4" s="6">
+        <v>84</v>
+      </c>
+      <c r="E4" s="6">
+        <v>25.9</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="H4" s="6">
+        <v>10.73</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="6">
+        <v>14.4474229346</v>
+      </c>
+      <c r="L4" s="6">
+        <v>13.8143897456</v>
+      </c>
+      <c r="M4" s="6">
+        <v>13.314025603699999</v>
+      </c>
+      <c r="N4" s="6">
+        <v>12.9966972063</v>
+      </c>
+      <c r="O4" s="6">
+        <v>12.2425254867</v>
+      </c>
+      <c r="P4" s="6">
+        <v>12.5169923045</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>12.2865533864</v>
+      </c>
+      <c r="R4" s="6">
+        <v>12.298260876500001</v>
+      </c>
+      <c r="S4" s="6">
+        <v>12.677067409899999</v>
+      </c>
+      <c r="T4" s="6">
+        <v>12.479913314499999</v>
+      </c>
+      <c r="U4" s="6">
+        <v>12.2172161834</v>
+      </c>
+      <c r="V4" s="6">
+        <v>11.7015215197</v>
+      </c>
+      <c r="W4" s="6">
+        <v>11.326454414400001</v>
+      </c>
+      <c r="X4" s="6">
+        <v>10.9514682142</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>9.5284313070300009</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>8.8647372779999998</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>9.2563214368899995</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>7.8072894144499996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="6">
+        <v>54</v>
+      </c>
+      <c r="B5" s="10">
+        <v>42922</v>
+      </c>
+      <c r="C5" s="10">
+        <v>42874</v>
+      </c>
+      <c r="D5" s="6">
+        <v>48</v>
+      </c>
+      <c r="E5" s="6">
+        <v>24.9</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1.189E-2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="6">
+        <v>29.813248999399999</v>
+      </c>
+      <c r="L5" s="6">
+        <v>28.459198846900001</v>
+      </c>
+      <c r="M5" s="6">
+        <v>28.3808060422</v>
+      </c>
+      <c r="N5" s="6">
+        <v>27.2222375228</v>
+      </c>
+      <c r="O5" s="6">
+        <v>26.352340532700001</v>
+      </c>
+      <c r="P5" s="6">
+        <v>25.5009503972</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>23.362779638599999</v>
+      </c>
+      <c r="R5" s="6">
+        <v>24.452020598400001</v>
+      </c>
+      <c r="S5" s="6">
+        <v>23.563106775400001</v>
+      </c>
+      <c r="T5" s="6">
+        <v>22.4458264061</v>
+      </c>
+      <c r="U5" s="6">
+        <v>21.787918964199999</v>
+      </c>
+      <c r="V5" s="6">
+        <v>21.829200717199999</v>
+      </c>
+      <c r="W5" s="6">
+        <v>24.290495312400001</v>
+      </c>
+      <c r="X5" s="6">
+        <v>27.0806376562</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>8.13122446707</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>17.120696649700001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="6">
+        <v>55</v>
+      </c>
+      <c r="B6" s="10">
+        <v>42923</v>
+      </c>
+      <c r="C6" s="10">
+        <v>42874</v>
+      </c>
+      <c r="D6" s="6">
+        <v>49</v>
+      </c>
+      <c r="E6" s="6">
+        <v>23</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>9.5200000000000007E-3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>11.63</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="6">
+        <v>19.676816323400001</v>
+      </c>
+      <c r="L6" s="6">
+        <v>19.567173241999999</v>
+      </c>
+      <c r="M6" s="6">
+        <v>19.700671321200002</v>
+      </c>
+      <c r="N6" s="6">
+        <v>19.245559044499998</v>
+      </c>
+      <c r="O6" s="6">
+        <v>19.423127583300001</v>
+      </c>
+      <c r="P6" s="6">
+        <v>19.202877454100001</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>18.810999458400001</v>
+      </c>
+      <c r="R6" s="6">
+        <v>20.523814092799999</v>
+      </c>
+      <c r="S6" s="6">
+        <v>20.262312180399999</v>
+      </c>
+      <c r="T6" s="6">
+        <v>21.218426511400001</v>
+      </c>
+      <c r="U6" s="6">
+        <v>21.3231756799</v>
+      </c>
+      <c r="V6" s="6">
+        <v>21.195258663600001</v>
+      </c>
+      <c r="W6" s="6">
+        <v>21.146205298400002</v>
+      </c>
+      <c r="X6" s="6">
+        <v>20.917321119899999</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>21.3997536629</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>20.252038378400002</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>20.6192008929</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>20.889281209100002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="6">
+        <v>56</v>
+      </c>
+      <c r="B7" s="10">
+        <v>42930</v>
+      </c>
+      <c r="C7" s="10">
+        <v>42874</v>
+      </c>
+      <c r="D7" s="6">
+        <v>56</v>
+      </c>
+      <c r="E7" s="6">
+        <v>24.4</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>9.3600000000000003E-3</v>
+      </c>
+      <c r="H7" s="6">
+        <v>11.05</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="6">
+        <v>22.453017367499999</v>
+      </c>
+      <c r="L7" s="6">
+        <v>22.344338527600001</v>
+      </c>
+      <c r="M7" s="6">
+        <v>22.321996661499998</v>
+      </c>
+      <c r="N7" s="6">
+        <v>22.501788322399999</v>
+      </c>
+      <c r="O7" s="6">
+        <v>22.053684902899999</v>
+      </c>
+      <c r="P7" s="6">
+        <v>22.514367518699999</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>23.028828396800002</v>
+      </c>
+      <c r="R7" s="6">
+        <v>24.816626643599999</v>
+      </c>
+      <c r="S7" s="6">
+        <v>25.827531091699999</v>
+      </c>
+      <c r="T7" s="6">
+        <v>26.723384185</v>
+      </c>
+      <c r="U7" s="6">
+        <v>26.871536864199999</v>
+      </c>
+      <c r="V7" s="6">
+        <v>28.930864686900001</v>
+      </c>
+      <c r="W7" s="6">
+        <v>49.496069313500001</v>
+      </c>
+      <c r="X7" s="6">
+        <v>49.596846258799999</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>34.292230824900003</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>35.599463210300001</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>36.9094354478</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>22.836610951400001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="6">
+        <v>51</v>
+      </c>
+      <c r="B8" s="10">
+        <v>42916</v>
+      </c>
+      <c r="C8" s="10">
+        <v>42837</v>
+      </c>
+      <c r="D8" s="6">
+        <v>79</v>
+      </c>
+      <c r="E8" s="6">
+        <v>24.1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1.0710000000000001E-2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>10.15</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6">
+        <v>17.109696716399998</v>
+      </c>
+      <c r="L8" s="6">
+        <v>16.839074818499999</v>
+      </c>
+      <c r="M8" s="6">
+        <v>16.076558952199999</v>
+      </c>
+      <c r="N8" s="6">
+        <v>17.011523194900001</v>
+      </c>
+      <c r="O8" s="6">
+        <v>18.0269631677</v>
+      </c>
+      <c r="P8" s="6">
+        <v>18.6670596017</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>17.5955514435</v>
+      </c>
+      <c r="R8" s="6">
+        <v>21.040820605099999</v>
+      </c>
+      <c r="S8" s="6">
+        <v>15.844023759900001</v>
+      </c>
+      <c r="T8" s="6">
+        <v>14.012433575099999</v>
+      </c>
+      <c r="U8" s="6">
+        <v>11.687949249100001</v>
+      </c>
+      <c r="V8" s="6">
+        <v>14.1653674123</v>
+      </c>
+      <c r="W8" s="6">
+        <v>13.911161419999999</v>
+      </c>
+      <c r="X8" s="6">
+        <v>15.50770092</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>8.7888927460000001</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>12.93380324</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>14.038266180000001</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="6">
+        <v>52</v>
+      </c>
+      <c r="B9" s="10">
+        <v>42916</v>
+      </c>
+      <c r="C9" s="10">
+        <v>42837</v>
+      </c>
+      <c r="D9" s="6">
+        <v>79</v>
+      </c>
+      <c r="E9" s="6">
+        <v>24.1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1.0670000000000001E-2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>11.15</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="6">
+        <v>21.269213746199998</v>
+      </c>
+      <c r="L9" s="6">
+        <v>17.713763022999998</v>
+      </c>
+      <c r="M9" s="6">
+        <v>19.9561261142</v>
+      </c>
+      <c r="N9" s="6">
+        <v>21.0821526382</v>
+      </c>
+      <c r="O9" s="6">
+        <v>22.909956941899999</v>
+      </c>
+      <c r="P9" s="6">
+        <v>20.250639077199999</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>23.470024966499999</v>
+      </c>
+      <c r="R9" s="6">
+        <v>21.996334715700002</v>
+      </c>
+      <c r="S9" s="6">
+        <v>22.3059869081</v>
+      </c>
+      <c r="T9" s="6">
+        <v>22.088058456199999</v>
+      </c>
+      <c r="U9" s="6">
+        <v>20.960236072400001</v>
+      </c>
+      <c r="V9" s="6">
+        <v>22.863583696799999</v>
+      </c>
+      <c r="W9" s="6">
+        <v>19.157260599899999</v>
+      </c>
+      <c r="X9" s="6">
+        <v>20.143220014699999</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>19.5474344669</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>19.4295223558</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>19.874692293700001</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>19.010011469199998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="6">
+        <v>53</v>
+      </c>
+      <c r="B10" s="10">
+        <v>42921</v>
+      </c>
+      <c r="C10" s="10">
+        <v>42837</v>
+      </c>
+      <c r="D10" s="6">
+        <v>84</v>
+      </c>
+      <c r="E10" s="6">
+        <v>25.9</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="H10" s="6">
+        <v>10.73</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="6">
+        <v>16.5636307137</v>
+      </c>
+      <c r="L10" s="6">
+        <v>15.768756573299999</v>
+      </c>
+      <c r="M10" s="6">
+        <v>15.0686325943</v>
+      </c>
+      <c r="N10" s="6">
+        <v>15.2344193387</v>
+      </c>
+      <c r="O10" s="6">
+        <v>14.4232647565</v>
+      </c>
+      <c r="P10" s="6">
+        <v>14.0926402258</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>14.497914695</v>
+      </c>
+      <c r="R10" s="6">
+        <v>14.700292639400001</v>
+      </c>
+      <c r="S10" s="6">
+        <v>14.689617504599999</v>
+      </c>
+      <c r="T10" s="6">
+        <v>14.848879345</v>
+      </c>
+      <c r="U10" s="6">
+        <v>14.0431055922</v>
+      </c>
+      <c r="V10" s="6">
+        <v>13.4596022973</v>
+      </c>
+      <c r="W10" s="6">
+        <v>12.6106267712</v>
+      </c>
+      <c r="X10" s="6">
+        <v>12.3158915934</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>11.2511553748</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>11.1591453364</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>11.223252819300001</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>10.617918398500001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="6">
+        <v>54</v>
+      </c>
+      <c r="B11" s="10">
+        <v>42922</v>
+      </c>
+      <c r="C11" s="10">
+        <v>42874</v>
+      </c>
+      <c r="D11" s="6">
+        <v>48</v>
+      </c>
+      <c r="E11" s="6">
+        <v>24.9</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1.189E-2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="6">
+        <v>37.421636160699997</v>
+      </c>
+      <c r="L11" s="6">
+        <v>36.788533626700001</v>
+      </c>
+      <c r="M11" s="6">
+        <v>37.459019678700002</v>
+      </c>
+      <c r="N11" s="6">
+        <v>37.630554847399999</v>
+      </c>
+      <c r="O11" s="6">
+        <v>36.259951790599999</v>
+      </c>
+      <c r="P11" s="6">
+        <v>34.361856542699996</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>32.369100321099999</v>
+      </c>
+      <c r="R11" s="6">
+        <v>31.367249354399998</v>
+      </c>
+      <c r="S11" s="6">
+        <v>31.590042112900001</v>
+      </c>
+      <c r="T11" s="6">
+        <v>29.9199436008</v>
+      </c>
+      <c r="U11" s="6">
+        <v>28.2319146219</v>
+      </c>
+      <c r="V11" s="6">
+        <v>28.762824220199999</v>
+      </c>
+      <c r="W11" s="6">
+        <v>31.503220493200001</v>
+      </c>
+      <c r="X11" s="6">
+        <v>32.969429144700001</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>12.015849511600001</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>22.0778792218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="6">
+        <v>55</v>
+      </c>
+      <c r="B12" s="10">
+        <v>42923</v>
+      </c>
+      <c r="C12" s="10">
+        <v>42874</v>
+      </c>
+      <c r="D12" s="6">
+        <v>49</v>
+      </c>
+      <c r="E12" s="6">
+        <v>23</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>9.5200000000000007E-3</v>
+      </c>
+      <c r="H12" s="6">
+        <v>11.63</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="6">
+        <v>23.188694827100001</v>
+      </c>
+      <c r="L12" s="6">
+        <v>23.441606253300002</v>
+      </c>
+      <c r="M12" s="6">
+        <v>24.056686635599998</v>
+      </c>
+      <c r="N12" s="6">
+        <v>23.6834906182</v>
+      </c>
+      <c r="O12" s="6">
+        <v>22.651266354099999</v>
+      </c>
+      <c r="P12" s="6">
+        <v>21.896241631599999</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>22.460128354999998</v>
+      </c>
+      <c r="R12" s="6">
+        <v>23.424400946700001</v>
+      </c>
+      <c r="S12" s="6">
+        <v>23.9839063575</v>
+      </c>
+      <c r="T12" s="6">
+        <v>24.777111769400001</v>
+      </c>
+      <c r="U12" s="6">
+        <v>25.261699877200002</v>
+      </c>
+      <c r="V12" s="6">
+        <v>24.508735936600001</v>
+      </c>
+      <c r="W12" s="6">
+        <v>24.450606252</v>
+      </c>
+      <c r="X12" s="6">
+        <v>24.599668104199999</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>24.328630442800002</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>24.474157951700001</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>24.001204551800001</v>
+      </c>
+      <c r="AB12" s="6">
+        <v>24.123541060299999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="6">
+        <v>56</v>
+      </c>
+      <c r="B13" s="10">
+        <v>42930</v>
+      </c>
+      <c r="C13" s="10">
+        <v>42874</v>
+      </c>
+      <c r="D13" s="6">
+        <v>56</v>
+      </c>
+      <c r="E13" s="6">
+        <v>24.4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>9.3600000000000003E-3</v>
+      </c>
+      <c r="H13" s="6">
+        <v>11.05</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="6">
+        <v>32.923689059499999</v>
+      </c>
+      <c r="L13" s="6">
+        <v>33.227808598499998</v>
+      </c>
+      <c r="M13" s="6">
+        <v>31.988975775</v>
+      </c>
+      <c r="N13" s="6">
+        <v>32.1659285904</v>
+      </c>
+      <c r="O13" s="6">
+        <v>32.438545200299998</v>
+      </c>
+      <c r="P13" s="6">
+        <v>33.282087578099997</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>34.643591641900002</v>
+      </c>
+      <c r="R13" s="6">
+        <v>36.610777824899998</v>
+      </c>
+      <c r="S13" s="6">
+        <v>38.177246739700003</v>
+      </c>
+      <c r="T13" s="6">
+        <v>39.143572360900002</v>
+      </c>
+      <c r="U13" s="6">
+        <v>39.373741540099999</v>
+      </c>
+      <c r="V13" s="6">
+        <v>39.455654233799997</v>
+      </c>
+      <c r="W13" s="6">
+        <v>53.388185014400001</v>
+      </c>
+      <c r="X13" s="6">
+        <v>55.415696534200002</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>47.092152141500002</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>47.665307028400001</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>47.331822123199998</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>31.773703666100001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="6">
+        <v>51</v>
+      </c>
+      <c r="B14" s="10">
+        <v>42916</v>
+      </c>
+      <c r="C14" s="10">
+        <v>42837</v>
+      </c>
+      <c r="D14" s="6">
+        <v>79</v>
+      </c>
+      <c r="E14" s="6">
+        <v>24.1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1.0710000000000001E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>10.15</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="6">
+        <v>59.171596530000002</v>
+      </c>
+      <c r="L14" s="6">
+        <v>55.55555725</v>
+      </c>
+      <c r="M14" s="6">
+        <v>52.219322200000001</v>
+      </c>
+      <c r="N14" s="6">
+        <v>52.219322200000001</v>
+      </c>
+      <c r="O14" s="6">
+        <v>57.30659103</v>
+      </c>
+      <c r="P14" s="6">
+        <v>51.813472750000003</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>65.146583559999996</v>
+      </c>
+      <c r="R14" s="6">
+        <v>62.111801149999998</v>
+      </c>
+      <c r="S14" s="6">
+        <v>41.84100342</v>
+      </c>
+      <c r="T14" s="6">
+        <v>38.095237730000001</v>
+      </c>
+      <c r="U14" s="6">
+        <v>42.28329849</v>
+      </c>
+      <c r="V14" s="6">
+        <v>43.103446959999999</v>
+      </c>
+      <c r="W14" s="6">
+        <v>47.732696529999998</v>
+      </c>
+      <c r="X14" s="6">
+        <v>55.865921020000002</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>56.022407530000002</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>45.04504395</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>45.04504395</v>
+      </c>
+      <c r="AB14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="6">
+        <v>52</v>
+      </c>
+      <c r="B15" s="10">
+        <v>42916</v>
+      </c>
+      <c r="C15" s="10">
+        <v>42837</v>
+      </c>
+      <c r="D15" s="6">
+        <v>79</v>
+      </c>
+      <c r="E15" s="6">
+        <v>24.1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1.0670000000000001E-2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>11.15</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="6">
+        <v>40.322582240000003</v>
+      </c>
+      <c r="L15" s="6">
+        <v>40.650405880000001</v>
+      </c>
+      <c r="M15" s="6">
+        <v>42.372882840000003</v>
+      </c>
+      <c r="N15" s="6">
+        <v>41.067760470000003</v>
+      </c>
+      <c r="O15" s="6">
+        <v>37.243946080000001</v>
+      </c>
+      <c r="P15" s="6">
+        <v>37.735847470000003</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>42.826553339999997</v>
+      </c>
+      <c r="R15" s="6">
+        <v>41.666667940000004</v>
+      </c>
+      <c r="S15" s="6">
+        <v>39.37007904</v>
+      </c>
+      <c r="T15" s="6">
+        <v>44.843048099999997</v>
+      </c>
+      <c r="U15" s="6">
+        <v>32.102729799999999</v>
+      </c>
+      <c r="V15" s="6">
+        <v>34.542312619999997</v>
+      </c>
+      <c r="W15" s="6">
+        <v>43.19654465</v>
+      </c>
+      <c r="X15" s="6">
+        <v>32.154342649999997</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>41.067760470000003</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>39.920158389999997</v>
+      </c>
+      <c r="AA15" s="6">
+        <v>38.535644529999999</v>
+      </c>
+      <c r="AB15" s="6">
+        <v>30.674846649999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="6">
+        <v>53</v>
+      </c>
+      <c r="B16" s="10">
+        <v>42921</v>
+      </c>
+      <c r="C16" s="10">
+        <v>42837</v>
+      </c>
+      <c r="D16" s="6">
+        <v>84</v>
+      </c>
+      <c r="E16" s="6">
+        <v>25.9</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="H16" s="6">
+        <v>10.73</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="6">
+        <v>24.301336289999998</v>
+      </c>
+      <c r="L16" s="6">
+        <v>24.330900190000001</v>
+      </c>
+      <c r="M16" s="6">
+        <v>23.041475299999998</v>
+      </c>
+      <c r="N16" s="6">
+        <v>21.83406067</v>
+      </c>
+      <c r="O16" s="6">
+        <v>22.727272030000002</v>
+      </c>
+      <c r="P16" s="6">
+        <v>22.12389374</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>22.271715159999999</v>
+      </c>
+      <c r="R16" s="6">
+        <v>22.099447250000001</v>
+      </c>
+      <c r="S16" s="6">
+        <v>22.22222137</v>
+      </c>
+      <c r="T16" s="6">
+        <v>22.07505608</v>
+      </c>
+      <c r="U16" s="6">
+        <v>22.17294884</v>
+      </c>
+      <c r="V16" s="6">
+        <v>20.639835359999999</v>
+      </c>
+      <c r="W16" s="6">
+        <v>19.417476650000001</v>
+      </c>
+      <c r="X16" s="6">
+        <v>16.86340714</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>18.2815361</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>16.142049790000002</v>
+      </c>
+      <c r="AA16" s="6">
+        <v>15.503875730000001</v>
+      </c>
+      <c r="AB16" s="6">
+        <v>15.04890919</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="6">
+        <v>54</v>
+      </c>
+      <c r="B17" s="10">
+        <v>42922</v>
+      </c>
+      <c r="C17" s="10">
+        <v>42874</v>
+      </c>
+      <c r="D17" s="6">
+        <v>48</v>
+      </c>
+      <c r="E17" s="6">
+        <v>24.9</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1.189E-2</v>
+      </c>
+      <c r="H17" s="6">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="6">
+        <v>51.948051450000001</v>
+      </c>
+      <c r="L17" s="6">
+        <v>55.096420289999998</v>
+      </c>
+      <c r="M17" s="6">
+        <v>50.761421200000001</v>
+      </c>
+      <c r="N17" s="6">
+        <v>52.63158035</v>
+      </c>
+      <c r="O17" s="6">
+        <v>51.546390529999996</v>
+      </c>
+      <c r="P17" s="6">
+        <v>49.140048980000003</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>46.18937683</v>
+      </c>
+      <c r="R17" s="6">
+        <v>46.403713230000001</v>
+      </c>
+      <c r="S17" s="6">
+        <v>49.261085510000001</v>
+      </c>
+      <c r="T17" s="6">
+        <v>45.454544069999997</v>
+      </c>
+      <c r="U17" s="6">
+        <v>42.462844850000003</v>
+      </c>
+      <c r="V17" s="6">
+        <v>44.052864069999998</v>
+      </c>
+      <c r="W17" s="6">
+        <v>42.105262760000002</v>
+      </c>
+      <c r="X17" s="6">
+        <v>44.44444275</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>20.768432619999999</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>21.097045900000001</v>
+      </c>
+      <c r="AB17" s="6">
+        <v>36.764705659999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="6">
+        <v>55</v>
+      </c>
+      <c r="B18" s="10">
+        <v>42923</v>
+      </c>
+      <c r="C18" s="10">
+        <v>42874</v>
+      </c>
+      <c r="D18" s="6">
+        <v>49</v>
+      </c>
+      <c r="E18" s="6">
+        <v>23</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>9.5200000000000007E-3</v>
+      </c>
+      <c r="H18" s="6">
+        <v>11.63</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="6">
+        <v>32.206119540000003</v>
+      </c>
+      <c r="L18" s="6">
+        <v>30.91190147</v>
+      </c>
+      <c r="M18" s="6">
+        <v>31.847133639999999</v>
+      </c>
+      <c r="N18" s="6">
+        <v>30.303030010000001</v>
+      </c>
+      <c r="O18" s="6">
+        <v>30.581039430000001</v>
+      </c>
+      <c r="P18" s="6">
+        <v>31.152648930000002</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>28.901733400000001</v>
+      </c>
+      <c r="R18" s="6">
+        <v>29.673589710000002</v>
+      </c>
+      <c r="S18" s="6">
+        <v>30.211481089999999</v>
+      </c>
+      <c r="T18" s="6">
+        <v>30.441400529999999</v>
+      </c>
+      <c r="U18" s="6">
+        <v>30.959753039999999</v>
+      </c>
+      <c r="V18" s="6">
+        <v>32.258064269999998</v>
+      </c>
+      <c r="W18" s="6">
+        <v>29.325513839999999</v>
+      </c>
+      <c r="X18" s="6">
+        <v>30.441400529999999</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>30.91190147</v>
+      </c>
+      <c r="Z18" s="6">
+        <v>29.80625916</v>
+      </c>
+      <c r="AA18" s="6">
+        <v>29.027576450000002</v>
+      </c>
+      <c r="AB18" s="6">
+        <v>29.717681880000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="6">
+        <v>56</v>
+      </c>
+      <c r="B19" s="10">
+        <v>42930</v>
+      </c>
+      <c r="C19" s="10">
+        <v>42874</v>
+      </c>
+      <c r="D19" s="6">
+        <v>56</v>
+      </c>
+      <c r="E19" s="6">
+        <v>24.4</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>9.3600000000000003E-3</v>
+      </c>
+      <c r="H19" s="6">
+        <v>11.05</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="6">
+        <v>56.657222750000003</v>
+      </c>
+      <c r="L19" s="6">
+        <v>58.997051239999998</v>
+      </c>
+      <c r="M19" s="6">
+        <v>60.42296219</v>
+      </c>
+      <c r="N19" s="6">
+        <v>61.162078860000001</v>
+      </c>
+      <c r="O19" s="6">
+        <v>63.09148407</v>
+      </c>
+      <c r="P19" s="6">
+        <v>61.349693299999998</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>60.975608829999999</v>
+      </c>
+      <c r="R19" s="6">
+        <v>66.006599429999994</v>
+      </c>
+      <c r="S19" s="6">
+        <v>69.204154970000005</v>
+      </c>
+      <c r="T19" s="6">
+        <v>66.22516632</v>
+      </c>
+      <c r="U19" s="6">
+        <v>68.728523249999995</v>
+      </c>
+      <c r="V19" s="6">
+        <v>63.897762299999997</v>
+      </c>
+      <c r="W19" s="6">
+        <v>86.206893919999999</v>
+      </c>
+      <c r="X19" s="6">
+        <v>95.693778989999998</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>90.909088130000001</v>
+      </c>
+      <c r="Z19" s="6">
+        <v>78.74015808</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>90.497734070000007</v>
+      </c>
+      <c r="AB19" s="6">
+        <v>55.710308070000004</v>
       </c>
     </row>
   </sheetData>

--- a/data/MasterGlutamateSpreadsheet.xlsx
+++ b/data/MasterGlutamateSpreadsheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10788" windowHeight="8262" activeTab="5" xr2:uid="{76EBCDB3-6D80-4011-A7B4-774B8706190D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10788" windowHeight="8262" firstSheet="2" activeTab="2" xr2:uid="{76EBCDB3-6D80-4011-A7B4-774B8706190D}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeControl" sheetId="1" r:id="rId1"/>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCD8EB7-4592-4D74-BEC1-FD73B58EE5E9}">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="I6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6042,8 +6042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42570B60-2586-41A4-BAE2-D8EDFEF640F8}">
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6342,58 +6342,58 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>90.497734070000007</v>
+        <v>76.001131439999995</v>
       </c>
       <c r="L4">
-        <v>84.388183589999997</v>
+        <v>73.622925649999999</v>
       </c>
       <c r="M4">
-        <v>85.470085139999995</v>
+        <v>74.057991029999997</v>
       </c>
       <c r="N4">
-        <v>85.836906429999999</v>
+        <v>71.023647729999993</v>
       </c>
       <c r="O4">
-        <v>82.304527280000002</v>
+        <v>70.80852763</v>
       </c>
       <c r="P4">
-        <v>84.03361511</v>
+        <v>75.589738460000007</v>
       </c>
       <c r="Q4">
-        <v>96.618354800000006</v>
+        <v>83.452184299999999</v>
       </c>
       <c r="R4">
-        <v>91.743118289999998</v>
+        <v>79.998789220000006</v>
       </c>
       <c r="S4">
-        <v>96.153846740000006</v>
+        <v>79.104511639999998</v>
       </c>
       <c r="T4">
-        <v>101.0101013</v>
+        <v>79.168673709999993</v>
       </c>
       <c r="U4">
-        <v>92.592590329999993</v>
+        <v>78.399644640000005</v>
       </c>
       <c r="V4">
-        <v>89.686096190000001</v>
+        <v>76.411760119999997</v>
       </c>
       <c r="W4">
-        <v>103.0927811</v>
+        <v>84.575807359999999</v>
       </c>
       <c r="X4">
-        <v>100</v>
+        <v>82.17436447</v>
       </c>
       <c r="Y4">
-        <v>99.502487180000003</v>
+        <v>78.847509770000002</v>
       </c>
       <c r="Z4">
-        <v>97.087379459999994</v>
+        <v>79.714009480000001</v>
       </c>
       <c r="AA4">
-        <v>94.786727909999996</v>
+        <v>77.945619960000002</v>
       </c>
       <c r="AB4">
-        <v>95.693778989999998</v>
+        <v>79.060542639999994</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -6428,58 +6428,58 @@
         <v>11</v>
       </c>
       <c r="K5">
-        <v>24.660911559999999</v>
+        <v>20.97670428</v>
       </c>
       <c r="L5">
-        <v>25.157232279999999</v>
+        <v>22.55046463</v>
       </c>
       <c r="M5">
-        <v>24.906600950000001</v>
+        <v>18.66834068</v>
       </c>
       <c r="N5">
-        <v>26.007802959999999</v>
+        <v>24.36515872</v>
       </c>
       <c r="O5">
-        <v>26.881719589999999</v>
+        <v>24.707345960000001</v>
       </c>
       <c r="P5">
-        <v>27.247957230000001</v>
+        <v>24.03927358</v>
       </c>
       <c r="Q5">
-        <v>27.972028730000002</v>
+        <v>23.934946700000001</v>
       </c>
       <c r="R5">
-        <v>27.21088409</v>
+        <v>24.458878840000001</v>
       </c>
       <c r="S5">
-        <v>26.455026629999999</v>
+        <v>24.817332589999999</v>
       </c>
       <c r="T5">
-        <v>27.932960510000001</v>
+        <v>24.14574623</v>
       </c>
       <c r="U5">
-        <v>28.20874405</v>
+        <v>23.736641410000001</v>
       </c>
       <c r="V5">
-        <v>27.972028730000002</v>
+        <v>24.992215470000001</v>
       </c>
       <c r="W5">
-        <v>26.420080179999999</v>
+        <v>23.99189758</v>
       </c>
       <c r="X5">
-        <v>25.57544708</v>
+        <v>23.466433210000002</v>
       </c>
       <c r="Y5">
-        <v>25.608194350000002</v>
+        <v>22.71382268</v>
       </c>
       <c r="Z5">
-        <v>24.096385959999999</v>
+        <v>22.970566430000002</v>
       </c>
       <c r="AA5">
-        <v>26.91790009</v>
+        <v>24.416904450000001</v>
       </c>
       <c r="AB5">
-        <v>26.91790009</v>
+        <v>24.416904450000001</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -6514,58 +6514,58 @@
         <v>12</v>
       </c>
       <c r="K6">
-        <v>76.001131439999995</v>
+        <v>90.497734070000007</v>
       </c>
       <c r="L6">
-        <v>73.622925649999999</v>
+        <v>84.388183589999997</v>
       </c>
       <c r="M6">
-        <v>74.057991029999997</v>
+        <v>85.470085139999995</v>
       </c>
       <c r="N6">
-        <v>71.023647729999993</v>
+        <v>85.836906429999999</v>
       </c>
       <c r="O6">
-        <v>70.80852763</v>
+        <v>82.304527280000002</v>
       </c>
       <c r="P6">
-        <v>75.589738460000007</v>
+        <v>84.03361511</v>
       </c>
       <c r="Q6">
-        <v>83.452184299999999</v>
+        <v>96.618354800000006</v>
       </c>
       <c r="R6">
-        <v>79.998789220000006</v>
+        <v>91.743118289999998</v>
       </c>
       <c r="S6">
-        <v>79.104511639999998</v>
+        <v>96.153846740000006</v>
       </c>
       <c r="T6">
-        <v>79.168673709999993</v>
+        <v>101.0101013</v>
       </c>
       <c r="U6">
-        <v>78.399644640000005</v>
+        <v>92.592590329999993</v>
       </c>
       <c r="V6">
-        <v>76.411760119999997</v>
+        <v>89.686096190000001</v>
       </c>
       <c r="W6">
-        <v>84.575807359999999</v>
+        <v>103.0927811</v>
       </c>
       <c r="X6">
-        <v>82.17436447</v>
+        <v>100</v>
       </c>
       <c r="Y6">
-        <v>78.847509770000002</v>
+        <v>99.502487180000003</v>
       </c>
       <c r="Z6">
-        <v>79.714009480000001</v>
+        <v>97.087379459999994</v>
       </c>
       <c r="AA6">
-        <v>77.945619960000002</v>
+        <v>94.786727909999996</v>
       </c>
       <c r="AB6">
-        <v>79.060542639999994</v>
+        <v>95.693778989999998</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -6600,58 +6600,58 @@
         <v>12</v>
       </c>
       <c r="K7">
-        <v>20.97670428</v>
+        <v>24.660911559999999</v>
       </c>
       <c r="L7">
-        <v>22.55046463</v>
+        <v>25.157232279999999</v>
       </c>
       <c r="M7">
-        <v>18.66834068</v>
+        <v>24.906600950000001</v>
       </c>
       <c r="N7">
-        <v>24.36515872</v>
+        <v>26.007802959999999</v>
       </c>
       <c r="O7">
-        <v>24.707345960000001</v>
+        <v>26.881719589999999</v>
       </c>
       <c r="P7">
-        <v>24.03927358</v>
+        <v>27.247957230000001</v>
       </c>
       <c r="Q7">
-        <v>23.934946700000001</v>
+        <v>27.972028730000002</v>
       </c>
       <c r="R7">
-        <v>24.458878840000001</v>
+        <v>27.21088409</v>
       </c>
       <c r="S7">
-        <v>24.817332589999999</v>
+        <v>26.455026629999999</v>
       </c>
       <c r="T7">
-        <v>24.14574623</v>
+        <v>27.932960510000001</v>
       </c>
       <c r="U7">
-        <v>23.736641410000001</v>
+        <v>28.20874405</v>
       </c>
       <c r="V7">
-        <v>24.992215470000001</v>
+        <v>27.972028730000002</v>
       </c>
       <c r="W7">
-        <v>23.99189758</v>
+        <v>26.420080179999999</v>
       </c>
       <c r="X7">
-        <v>23.466433210000002</v>
+        <v>25.57544708</v>
       </c>
       <c r="Y7">
-        <v>22.71382268</v>
+        <v>25.608194350000002</v>
       </c>
       <c r="Z7">
-        <v>22.970566430000002</v>
+        <v>24.096385959999999</v>
       </c>
       <c r="AA7">
-        <v>24.416904450000001</v>
+        <v>26.91790009</v>
       </c>
       <c r="AB7">
-        <v>24.416904450000001</v>
+        <v>26.91790009</v>
       </c>
     </row>
   </sheetData>
@@ -13520,7 +13520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73922CA1-B06F-4DBB-B17D-C368927A988C}">
   <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:A19"/>
     </sheetView>
   </sheetViews>
